--- a/Data/DS courses list.xlsx
+++ b/Data/DS courses list.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ola\OneDrive - Universiteit Utrecht\Documents\GitHub\UU-DS-courses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ola\OneDrive - Universiteit Utrecht\Documents\GitHub\UU-DS-courses\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424984F1-6DBD-42DE-B44B-B20C9D388A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C279FF1-E592-4FC1-8C22-BD717C3E6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1526A550-0408-4384-9B3B-2B5C51FB6CCB}"/>
+    <workbookView xWindow="1545" yWindow="-12765" windowWidth="28965" windowHeight="11730" xr2:uid="{1526A550-0408-4384-9B3B-2B5C51FB6CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AY$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,9 +46,19 @@
     <author>tc={2C1CB73F-0B60-41E5-AECE-1427034B9CE3}</author>
     <author>tc={35885A4E-3B89-4D6A-95CD-08862DFB9430}</author>
     <author>tc={0477E9A7-5E83-41B8-965E-BC68BE4572C4}</author>
+    <author>tc={E2FFAAF8-7744-465F-9701-9A2AFF0D8FD2}</author>
+    <author>tc={971B0614-288D-4052-BBD0-23AC10C52401}</author>
+    <author>tc={7C5818E2-1E6A-4677-95FD-D0E0F1BC44BF}</author>
+    <author>tc={0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}</author>
+    <author>tc={B346AB8C-D5F8-4A60-B1CA-15714598AC1D}</author>
+    <author>tc={FA9CD2C0-F5EE-473A-BF68-EE1E51FD7EED}</author>
+    <author>tc={74E5C956-2E55-47CF-908B-6DF2CA8BFF70}</author>
+    <author>tc={D9A68AAD-F7F5-48E9-86BF-E791855CE074}</author>
+    <author>tc={D2CE96B7-DA8C-4491-9962-80A041D6783C}</author>
+    <author>tc={0156854D-B856-40C8-9F6A-56D1A73DF7D0}</author>
   </authors>
   <commentList>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{7912B0EA-387D-478B-95D3-9090A6112730}">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{7912B0EA-387D-478B-95D3-9090A6112730}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +67,7 @@
 INFOMEBD: developing and validating clinical prediction models using IPD</t>
       </text>
     </comment>
-    <comment ref="AN26" authorId="1" shapeId="0" xr:uid="{235018C0-EEF6-44A5-9ED8-1B80DA82E322}">
+    <comment ref="AO26" authorId="1" shapeId="0" xr:uid="{235018C0-EEF6-44A5-9ED8-1B80DA82E322}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +75,7 @@
     probability</t>
       </text>
     </comment>
-    <comment ref="AT26" authorId="2" shapeId="0" xr:uid="{55636430-28F9-427E-8FC9-0523E795980C}">
+    <comment ref="AU26" authorId="2" shapeId="0" xr:uid="{55636430-28F9-427E-8FC9-0523E795980C}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +93,7 @@
 sparse recovery</t>
       </text>
     </comment>
-    <comment ref="AN30" authorId="3" shapeId="0" xr:uid="{4D3D460E-D00C-48E4-97F6-28235A8C037F}">
+    <comment ref="AO30" authorId="3" shapeId="0" xr:uid="{4D3D460E-D00C-48E4-97F6-28235A8C037F}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +109,7 @@
 Fitted values</t>
       </text>
     </comment>
-    <comment ref="AN31" authorId="4" shapeId="0" xr:uid="{2C1CB73F-0B60-41E5-AECE-1427034B9CE3}">
+    <comment ref="AO31" authorId="4" shapeId="0" xr:uid="{2C1CB73F-0B60-41E5-AECE-1427034B9CE3}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -115,7 +125,7 @@
     The course covers the essentials of qualitative research, in particular techniques for identifying themes, the making of systematic comparisons, and grounding interpretation in theory. Finally, it focuses on the principles of dovetailing primary ethnographic research, secondary data, and larger theoretical frames.</t>
       </text>
     </comment>
-    <comment ref="AN49" authorId="6" shapeId="0" xr:uid="{0477E9A7-5E83-41B8-965E-BC68BE4572C4}">
+    <comment ref="AO49" authorId="6" shapeId="0" xr:uid="{0477E9A7-5E83-41B8-965E-BC68BE4572C4}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -123,12 +133,94 @@
     inference</t>
       </text>
     </comment>
+    <comment ref="A55" authorId="7" shapeId="0" xr:uid="{E2FFAAF8-7744-465F-9701-9A2AFF0D8FD2}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    This course mentions in discription a statistical software use but I'm not sure what it is</t>
+      </text>
+    </comment>
+    <comment ref="AR62" authorId="8" shapeId="0" xr:uid="{971B0614-288D-4052-BBD0-23AC10C52401}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    qualitative data</t>
+      </text>
+    </comment>
+    <comment ref="AU62" authorId="9" shapeId="0" xr:uid="{7C5818E2-1E6A-4677-95FD-D0E0F1BC44BF}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
+      </text>
+    </comment>
+    <comment ref="A63" authorId="10" shapeId="0" xr:uid="{0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    no course description
+Odpowiedź:
+    only spss mantioned in the literature</t>
+      </text>
+    </comment>
+    <comment ref="AR64" authorId="11" shapeId="0" xr:uid="{B346AB8C-D5F8-4A60-B1CA-15714598AC1D}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    qualitative data</t>
+      </text>
+    </comment>
+    <comment ref="AU64" authorId="12" shapeId="0" xr:uid="{FA9CD2C0-F5EE-473A-BF68-EE1E51FD7EED}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
+      </text>
+    </comment>
+    <comment ref="AR65" authorId="13" shapeId="0" xr:uid="{74E5C956-2E55-47CF-908B-6DF2CA8BFF70}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    qualitative data</t>
+      </text>
+    </comment>
+    <comment ref="AU65" authorId="14" shapeId="0" xr:uid="{D9A68AAD-F7F5-48E9-86BF-E791855CE074}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
+      </text>
+    </comment>
+    <comment ref="AR66" authorId="15" shapeId="0" xr:uid="{D2CE96B7-DA8C-4491-9962-80A041D6783C}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
+      </text>
+    </comment>
+    <comment ref="AU66" authorId="16" shapeId="0" xr:uid="{0156854D-B856-40C8-9F6A-56D1A73DF7D0}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="307">
   <si>
     <t>Course Name</t>
   </si>
@@ -282,9 +374,6 @@
     <t>Epi</t>
   </si>
   <si>
-    <t> statistical methods</t>
-  </si>
-  <si>
     <t>INFOMUDR</t>
   </si>
   <si>
@@ -423,9 +512,6 @@
     <t>Database management</t>
   </si>
   <si>
-    <t>data collection</t>
-  </si>
-  <si>
     <t>Data analytics</t>
   </si>
   <si>
@@ -486,9 +572,6 @@
     <t>Applied Data Science Profile (PROFILE-ADS), Business Informatics (MBIM)</t>
   </si>
   <si>
-    <t xml:space="preserve">data science practice awarenes and ethics </t>
-  </si>
-  <si>
     <t>nonSQL databases</t>
   </si>
   <si>
@@ -931,13 +1014,163 @@
   </si>
   <si>
     <t>S005</t>
+  </si>
+  <si>
+    <t>ADS: Foundation of Research and Statistics</t>
+  </si>
+  <si>
+    <t>MSc. H.J. Leplaa</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>not Academische lerarenopleiding primair onderwijs, not Cultural Anthropology and Development Sociology, not Educational Sciences, not Interdisciplinary Social Sciences, not Pedagogical Sciences, not Psychology, not Sociology</t>
+  </si>
+  <si>
+    <t>Bayesian statistics</t>
+  </si>
+  <si>
+    <t> statistical methods (non bayesian)</t>
+  </si>
+  <si>
+    <t>Advanced Research Methods and Statistics for Psychology</t>
+  </si>
+  <si>
+    <t>prof. dr. I.G. Klugkist</t>
+  </si>
+  <si>
+    <t>MSc. A.F. ten Brink, dr. M.J. van der Smagt, dr. S. Gayet, dr. T. van Timmeren</t>
+  </si>
+  <si>
+    <t>KOM (201800051), TOE (201800055)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Sociological Theory: Modelling Social Interaction </t>
+  </si>
+  <si>
+    <t>Only for students from Keulen/Mannheim! This course is a 6 week program.</t>
+  </si>
+  <si>
+    <t>dr. R. Corten</t>
+  </si>
+  <si>
+    <t>Advanced Sociological Theory: Modelling Social interaction </t>
+  </si>
+  <si>
+    <t>dr. R. Corten, prof. dr. ir. V.W. Buskens, MSc. A. Macanović, dr. D. Mazrekaj, dr. M. Kros</t>
+  </si>
+  <si>
+    <t>dr. R. Corten, prof. dr. ir. V.W. Buskens, MSc. A. Macanović, dr. D. Mazrekaj, dr. M. Kros, W.B.P. Kwint</t>
+  </si>
+  <si>
+    <t>Sociology and social research (SW-SOC-MI5), Sociology: Contemporary Social Problems (SW-SOC-MI6)</t>
+  </si>
+  <si>
+    <t>Advanced Statistics II: Introduction in multilevel and structural equation modelling for EdSci</t>
+  </si>
+  <si>
+    <t>dr. L.D.N.V. Wijngaards</t>
+  </si>
+  <si>
+    <t>Educational Sciences: Learning in Interaction (EDSM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strong theoretical base of data science practice and ethics </t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>Advanced research methods and statistics for Interdisciplinary Social Sciences </t>
+  </si>
+  <si>
+    <t>dr. C. Rietbergen</t>
+  </si>
+  <si>
+    <t>dr. Duco Veen</t>
+  </si>
+  <si>
+    <t>Liberal Arts and Sciences (LASB)</t>
+  </si>
+  <si>
+    <t>Liberal Arts and Sciences (LASB),  Social Education and Youth Policy (SW-PED-MI12)</t>
+  </si>
+  <si>
+    <t>Advanced research methods and statistics for pedagogical sciences</t>
+  </si>
+  <si>
+    <t>dr. ir. N.W. Lagerweij</t>
+  </si>
+  <si>
+    <t>KOM (201800051), TOE (201800055), BOS</t>
+  </si>
+  <si>
+    <t>Advanced statistics I: Multivariate statistics in practice for EdSci</t>
+  </si>
+  <si>
+    <t>dr. M. Moerbeek</t>
+  </si>
+  <si>
+    <t>dr. L.D.N.V. Wijngaards, dr. E.M. Grandfield, prof. dr. Tamara van Gog</t>
+  </si>
+  <si>
+    <t>prof. dr. Tamara van Gog</t>
+  </si>
+  <si>
+    <t>Text mining</t>
+  </si>
+  <si>
+    <t>study design</t>
+  </si>
+  <si>
+    <t>data collection methods</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Applying Research Methods and Statistics (PSY)</t>
+  </si>
+  <si>
+    <t>Applying research methods and statistics </t>
+  </si>
+  <si>
+    <t>dr. J.E. Wassenberg-Severijnen</t>
+  </si>
+  <si>
+    <t>201800022, Faculty of Social Sciences</t>
+  </si>
+  <si>
+    <t>Applying research methods and statistics (PW &amp; OWW)</t>
+  </si>
+  <si>
+    <t>Applying research methods and statistics (ISS)</t>
+  </si>
+  <si>
+    <t>dr. J.E. Wassenberg-Severijnen,E.E. Vernooij</t>
+  </si>
+  <si>
+    <t>Applying research methods and statistics (SOC) </t>
+  </si>
+  <si>
+    <t>dr. J.E. Wassenberg-Severijnen, MSc. L. Mandemakers</t>
+  </si>
+  <si>
+    <t>prof. dr. H.J.A. Hoijtink</t>
+  </si>
+  <si>
+    <t>prof. dr. H.J.A. Hoijtink, dr. N.K. Schuurman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSBBSS03 and MSBBSS04 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,6 +1235,12 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1029,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1038,6 +1277,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1359,14 +1601,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AN1" dT="2022-10-04T13:14:25.99" personId="{1C7E087E-E899-4ED6-827C-5BB62023D5BF}" id="{7912B0EA-387D-478B-95D3-9090A6112730}">
+  <threadedComment ref="AO1" dT="2022-10-04T13:14:25.99" personId="{1C7E087E-E899-4ED6-827C-5BB62023D5BF}" id="{7912B0EA-387D-478B-95D3-9090A6112730}">
     <text>INFOMUDR-evaluating probabilistic prediction models, such as discrimination and calibration, and how to asses them using cross-validation 
 INFOMEBD: developing and validating clinical prediction models using IPD</text>
   </threadedComment>
-  <threadedComment ref="AN26" dT="2022-10-07T17:19:06.74" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{235018C0-EEF6-44A5-9ED8-1B80DA82E322}">
+  <threadedComment ref="AO26" dT="2022-10-07T17:19:06.74" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{235018C0-EEF6-44A5-9ED8-1B80DA82E322}">
     <text>probability</text>
   </threadedComment>
-  <threadedComment ref="AT26" dT="2022-10-07T17:18:28.72" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{55636430-28F9-427E-8FC9-0523E795980C}">
+  <threadedComment ref="AU26" dT="2022-10-07T17:18:28.72" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{55636430-28F9-427E-8FC9-0523E795980C}">
     <text>concentration inequalities
 covariance matrices and Principle Component Analysis
 high-dimensional distributions
@@ -1379,7 +1621,7 @@
 deviations of random matrices
 sparse recovery</text>
   </threadedComment>
-  <threadedComment ref="AN30" dT="2022-10-08T17:30:06.70" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{4D3D460E-D00C-48E4-97F6-28235A8C037F}">
+  <threadedComment ref="AO30" dT="2022-10-08T17:30:06.70" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{4D3D460E-D00C-48E4-97F6-28235A8C037F}">
     <text>(Conditional) probability
 Inference
 Estimation
@@ -1390,25 +1632,59 @@
 Residuals
 Fitted values</text>
   </threadedComment>
-  <threadedComment ref="AN31" dT="2022-10-08T17:47:06.98" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{2C1CB73F-0B60-41E5-AECE-1427034B9CE3}">
+  <threadedComment ref="AO31" dT="2022-10-08T17:47:06.98" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{2C1CB73F-0B60-41E5-AECE-1427034B9CE3}">
     <text>using these data for estimation purposes</text>
   </threadedComment>
   <threadedComment ref="A35" dT="2022-10-08T18:10:51.15" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{35885A4E-3B89-4D6A-95CD-08862DFB9430}">
     <text>The course covers the essentials of qualitative research, in particular techniques for identifying themes, the making of systematic comparisons, and grounding interpretation in theory. Finally, it focuses on the principles of dovetailing primary ethnographic research, secondary data, and larger theoretical frames.</text>
   </threadedComment>
-  <threadedComment ref="AN49" dT="2022-10-11T10:33:57.67" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0477E9A7-5E83-41B8-965E-BC68BE4572C4}">
+  <threadedComment ref="AO49" dT="2022-10-11T10:33:57.67" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0477E9A7-5E83-41B8-965E-BC68BE4572C4}">
     <text>inference</text>
+  </threadedComment>
+  <threadedComment ref="A55" dT="2022-10-12T09:45:31.51" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{E2FFAAF8-7744-465F-9701-9A2AFF0D8FD2}">
+    <text>This course mentions in discription a statistical software use but I'm not sure what it is</text>
+  </threadedComment>
+  <threadedComment ref="AR62" dT="2022-10-12T15:01:51.51" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{971B0614-288D-4052-BBD0-23AC10C52401}">
+    <text>qualitative data</text>
+  </threadedComment>
+  <threadedComment ref="AU62" dT="2022-10-12T15:15:59.00" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{7C5818E2-1E6A-4677-95FD-D0E0F1BC44BF}">
+    <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
+  </threadedComment>
+  <threadedComment ref="A63" dT="2022-10-12T15:26:01.31" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}">
+    <text>no course description</text>
+  </threadedComment>
+  <threadedComment ref="A63" dT="2022-10-12T15:26:28.06" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{F121CDAB-DC8B-48D6-9505-C2300F077CB9}" parentId="{0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}">
+    <text>only spss mantioned in the literature</text>
+  </threadedComment>
+  <threadedComment ref="AR64" dT="2022-10-12T15:29:32.58" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{B346AB8C-D5F8-4A60-B1CA-15714598AC1D}">
+    <text>qualitative data</text>
+  </threadedComment>
+  <threadedComment ref="AU64" dT="2022-10-12T15:29:11.55" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{FA9CD2C0-F5EE-473A-BF68-EE1E51FD7EED}">
+    <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
+  </threadedComment>
+  <threadedComment ref="AR65" dT="2022-10-12T15:33:36.58" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{74E5C956-2E55-47CF-908B-6DF2CA8BFF70}">
+    <text>qualitative data</text>
+  </threadedComment>
+  <threadedComment ref="AU65" dT="2022-10-12T15:33:22.60" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{D9A68AAD-F7F5-48E9-86BF-E791855CE074}">
+    <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
+  </threadedComment>
+  <threadedComment ref="AR66" dT="2022-10-12T15:36:24.67" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{D2CE96B7-DA8C-4491-9962-80A041D6783C}">
+    <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
+  </threadedComment>
+  <threadedComment ref="AU66" dT="2022-10-12T15:36:18.72" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0156854D-B856-40C8-9F6A-56D1A73DF7D0}">
+    <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}">
-  <dimension ref="A1:BA53"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH54" sqref="AH54"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE67" sqref="BE67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,23 +1728,24 @@
     <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.109375" customWidth="1"/>
+    <col min="41" max="41" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1786,7 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -1524,43 +1801,43 @@
         <v>11</v>
       </c>
       <c r="S1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" t="s">
+        <v>293</v>
+      </c>
+      <c r="V1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" t="s">
+        <v>109</v>
+      </c>
+      <c r="X1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" t="s">
         <v>111</v>
-      </c>
-      <c r="T1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>114</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
       </c>
       <c r="AA1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AB1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AD1" t="s">
         <v>32</v>
       </c>
       <c r="AE1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF1" t="s">
         <v>33</v>
@@ -1572,64 +1849,76 @@
         <v>35</v>
       </c>
       <c r="AI1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>49</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>50</v>
       </c>
       <c r="AK1" t="s">
         <v>41</v>
       </c>
       <c r="AL1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AM1" t="s">
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="AO1" t="s">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="AP1" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="AQ1" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="AR1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="AS1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AT1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AU1" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="AV1" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="AW1" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="AX1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AY1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="AZ1" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="BA1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1676,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1744,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1796,16 +2085,16 @@
       <c r="AM4">
         <v>1</v>
       </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AO4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1817,10 +2106,10 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <v>7.5</v>
@@ -1849,16 +2138,16 @@
       <c r="AA5">
         <v>1</v>
       </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AO5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1870,10 +2159,10 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6">
         <v>7.5</v>
@@ -1905,25 +2194,25 @@
       <c r="AJ6">
         <v>1</v>
       </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
       <c r="AO6">
         <v>1</v>
       </c>
-      <c r="AQ6">
+      <c r="AP6">
         <v>1</v>
       </c>
       <c r="AR6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AS6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1935,10 +2224,10 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7">
         <v>7.5</v>
@@ -1967,19 +2256,19 @@
       <c r="AH7">
         <v>1</v>
       </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1991,10 +2280,10 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
         <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
       </c>
       <c r="I8">
         <v>7.5</v>
@@ -2006,7 +2295,7 @@
         <v>2022</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
         <v>18</v>
@@ -2024,12 +2313,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -2041,10 +2330,10 @@
         <v>26</v>
       </c>
       <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
       </c>
       <c r="I9">
         <v>7.5</v>
@@ -2070,16 +2359,16 @@
       <c r="T9">
         <v>1</v>
       </c>
-      <c r="AN9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AO9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -2091,10 +2380,10 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
         <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
       </c>
       <c r="I10">
         <v>7.5</v>
@@ -2124,12 +2413,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -2141,10 +2430,10 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>7.5</v>
@@ -2170,16 +2459,16 @@
       <c r="S11">
         <v>1</v>
       </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AT11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
         <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -2191,10 +2480,10 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12">
         <v>7.5</v>
@@ -2206,10 +2495,10 @@
         <v>2021</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s">
         <v>25</v>
@@ -2218,12 +2507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -2235,10 +2524,10 @@
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>7.5</v>
@@ -2267,31 +2556,31 @@
       <c r="AA13">
         <v>1</v>
       </c>
-      <c r="AQ13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AR13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <v>7.5</v>
@@ -2306,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -2330,12 +2619,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2347,10 +2636,10 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>7.5</v>
@@ -2365,10 +2654,10 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -2382,34 +2671,34 @@
       <c r="AG15">
         <v>1</v>
       </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I16">
         <v>7.5</v>
@@ -2424,14 +2713,14 @@
         <v>2</v>
       </c>
       <c r="M16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" t="s">
         <v>103</v>
       </c>
-      <c r="N16" t="s">
-        <v>104</v>
-      </c>
-      <c r="P16" t="s">
-        <v>105</v>
-      </c>
       <c r="S16">
         <v>1</v>
       </c>
@@ -2447,16 +2736,16 @@
       <c r="Y16">
         <v>1</v>
       </c>
-      <c r="AQ16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AR16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -2468,10 +2757,10 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I17">
         <v>7.5</v>
@@ -2486,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P17" t="s">
         <v>25</v>
@@ -2494,22 +2783,22 @@
       <c r="Q17">
         <v>1</v>
       </c>
-      <c r="AT17">
-        <v>1</v>
-      </c>
       <c r="AU17">
         <v>1</v>
       </c>
       <c r="AV17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -2521,10 +2810,10 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I18">
         <v>7.5</v>
@@ -2539,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P18" t="s">
         <v>25</v>
@@ -2553,31 +2842,31 @@
       <c r="AE18">
         <v>1</v>
       </c>
-      <c r="AT18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AU18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I19">
         <v>7.5</v>
@@ -2592,42 +2881,42 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P19" t="s">
+        <v>124</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>127</v>
       </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20">
         <v>7.5</v>
@@ -2642,33 +2931,33 @@
         <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s">
+        <v>125</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
         <v>128</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>131</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -2686,42 +2975,42 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
         <v>133</v>
-      </c>
-      <c r="P21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AQ21">
-        <v>1</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" t="s">
-        <v>136</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -2733,10 +3022,10 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I22">
         <v>7.5</v>
@@ -2751,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2762,31 +3051,31 @@
       <c r="AG22">
         <v>1</v>
       </c>
-      <c r="AU22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AV22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I23">
         <v>7.5</v>
@@ -2801,10 +3090,10 @@
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2815,16 +3104,16 @@
       <c r="AA23">
         <v>1</v>
       </c>
-      <c r="AQ23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AR23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -2836,10 +3125,10 @@
         <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I24">
         <v>7.5</v>
@@ -2856,31 +3145,31 @@
       <c r="AE24">
         <v>1</v>
       </c>
-      <c r="AV24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I25">
         <v>7.5</v>
@@ -2895,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -2906,19 +3195,19 @@
       <c r="AE25">
         <v>1</v>
       </c>
-      <c r="AT25">
-        <v>1</v>
-      </c>
-      <c r="AW25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -2930,10 +3219,10 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I26">
         <v>7.5</v>
@@ -2942,7 +3231,7 @@
         <v>2021</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P26" t="s">
         <v>26</v>
@@ -2950,22 +3239,22 @@
       <c r="Q26">
         <v>1</v>
       </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AT26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -2977,10 +3266,10 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -2992,10 +3281,10 @@
         <v>2022</v>
       </c>
       <c r="L27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -3013,12 +3302,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -3033,7 +3322,7 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I28">
         <v>7.5</v>
@@ -3048,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P28" t="s">
         <v>25</v>
@@ -3068,13 +3357,13 @@
       <c r="AF28">
         <v>1</v>
       </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B29">
         <v>201900027</v>
@@ -3086,13 +3375,13 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I29">
         <v>7.5</v>
@@ -3107,7 +3396,7 @@
         <v>4</v>
       </c>
       <c r="M29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -3124,25 +3413,25 @@
       <c r="AK29">
         <v>1</v>
       </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AT29">
-        <v>1</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AU29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B30">
         <v>201900026</v>
@@ -3154,13 +3443,13 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I30">
         <v>7.5</v>
@@ -3175,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -3192,19 +3481,19 @@
       <c r="AL30">
         <v>1</v>
       </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B31">
         <v>201700013</v>
@@ -3216,13 +3505,13 @@
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -3237,36 +3526,36 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P31" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>181</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AK31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>184</v>
       </c>
       <c r="B32">
         <v>201600038</v>
@@ -3278,10 +3567,10 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32">
         <v>7.5</v>
@@ -3293,12 +3582,12 @@
         <v>2020</v>
       </c>
       <c r="L32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B33">
         <v>200700054</v>
@@ -3307,13 +3596,13 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I33">
         <v>7.5</v>
@@ -3325,9 +3614,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B34">
         <v>202200015</v>
@@ -3339,10 +3628,10 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -3351,13 +3640,13 @@
         <v>2022</v>
       </c>
       <c r="L34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -3369,9 +3658,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35">
         <v>201000091</v>
@@ -3383,13 +3672,13 @@
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I35">
         <v>7.5</v>
@@ -3401,18 +3690,18 @@
         <v>2022</v>
       </c>
       <c r="L35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P35">
         <v>201100072</v>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B36">
         <v>201800138</v>
@@ -3424,13 +3713,13 @@
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I36">
         <v>7.5</v>
@@ -3445,10 +3734,10 @@
         <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P36">
         <v>200300022</v>
@@ -3456,25 +3745,25 @@
       <c r="Q36">
         <v>1</v>
       </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AQ36">
-        <v>1</v>
-      </c>
-      <c r="AY36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AZ36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B37">
         <v>201800139</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -3483,7 +3772,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I37">
         <v>5</v>
@@ -3498,9 +3787,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B38">
         <v>201500130</v>
@@ -3512,10 +3801,10 @@
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I38">
         <v>7.5</v>
@@ -3530,30 +3819,30 @@
         <v>3</v>
       </c>
       <c r="N38" t="s">
+        <v>199</v>
+      </c>
+      <c r="P38" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>202</v>
-      </c>
-      <c r="P38" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="AE38">
-        <v>1</v>
-      </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>205</v>
       </c>
       <c r="B39">
         <v>200300022</v>
@@ -3562,16 +3851,16 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I39">
         <v>7.5</v>
@@ -3586,24 +3875,24 @@
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P39" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
+      <c r="AZ39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>207</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AQ39">
-        <v>1</v>
-      </c>
-      <c r="AY39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>210</v>
       </c>
       <c r="B40">
         <v>201300001</v>
@@ -3615,7 +3904,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I40">
         <v>7.5</v>
@@ -3627,13 +3916,13 @@
         <v>2022</v>
       </c>
       <c r="L40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -3650,19 +3939,19 @@
       <c r="AK40">
         <v>1</v>
       </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
+      <c r="AO40">
         <v>1</v>
       </c>
       <c r="AQ40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AR40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B41">
         <v>202100022</v>
@@ -3671,12 +3960,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -3688,10 +3977,10 @@
         <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I42">
         <v>7.5</v>
@@ -3706,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P42" t="s">
         <v>25</v>
@@ -3726,28 +4015,28 @@
       <c r="AL42">
         <v>1</v>
       </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AT42">
-        <v>1</v>
-      </c>
-      <c r="AV42">
-        <v>1</v>
-      </c>
-      <c r="AX42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AU42">
+        <v>1</v>
+      </c>
+      <c r="AW42">
+        <v>1</v>
+      </c>
+      <c r="AY42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -3759,10 +4048,10 @@
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I43">
         <v>7.5</v>
@@ -3777,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="M43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P43" t="s">
         <v>25</v>
@@ -3806,25 +4095,25 @@
       <c r="AK43">
         <v>1</v>
       </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AT43">
-        <v>1</v>
-      </c>
-      <c r="AV43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AU43">
+        <v>1</v>
+      </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
+      <c r="AY43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -3833,10 +4122,10 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I44">
         <v>1.5</v>
@@ -3845,7 +4134,7 @@
         <v>2022</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AC44">
         <v>1</v>
@@ -3860,12 +4149,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3874,13 +4163,13 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I45">
         <v>1.5</v>
@@ -3889,7 +4178,7 @@
         <v>2022</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AE45">
         <v>1</v>
@@ -3897,16 +4186,16 @@
       <c r="AG45">
         <v>1</v>
       </c>
-      <c r="AX45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -3918,10 +4207,10 @@
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I46">
         <v>1.5</v>
@@ -3930,24 +4219,24 @@
         <v>2022</v>
       </c>
       <c r="R46" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AE46">
         <v>1</v>
       </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AZ46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
@@ -3956,13 +4245,13 @@
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I47">
         <v>1.5</v>
@@ -3974,7 +4263,7 @@
         <v>60</v>
       </c>
       <c r="R47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Z47">
         <v>1</v>
@@ -3988,28 +4277,28 @@
       <c r="AK47">
         <v>1</v>
       </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AT47">
-        <v>1</v>
-      </c>
-      <c r="AV47">
-        <v>1</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AU47">
+        <v>1</v>
+      </c>
+      <c r="AW47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -4018,13 +4307,13 @@
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H48" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I48">
         <v>1.5</v>
@@ -4036,7 +4325,7 @@
         <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Z48">
         <v>1</v>
@@ -4053,25 +4342,28 @@
       <c r="AG48">
         <v>1</v>
       </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
-      </c>
-      <c r="AT48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+      <c r="AU48">
+        <v>1</v>
+      </c>
+      <c r="AY48">
+        <v>1</v>
+      </c>
+      <c r="BD48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -4080,13 +4372,13 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G49" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I49">
         <v>1.5</v>
@@ -4098,7 +4390,7 @@
         <v>50</v>
       </c>
       <c r="R49" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -4109,25 +4401,25 @@
       <c r="AK49">
         <v>1</v>
       </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AQ49">
-        <v>1</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AY49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -4136,13 +4428,13 @@
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I50">
         <v>1.5</v>
@@ -4154,7 +4446,7 @@
         <v>80</v>
       </c>
       <c r="R50" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AE50">
         <v>1</v>
@@ -4162,22 +4454,22 @@
       <c r="AK50">
         <v>1</v>
       </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AR50">
-        <v>1</v>
-      </c>
-      <c r="AV50">
-        <v>1</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AS50">
+        <v>1</v>
+      </c>
+      <c r="AW50">
+        <v>1</v>
+      </c>
+      <c r="AY50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B51">
         <v>202100012</v>
@@ -4189,13 +4481,13 @@
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I51">
         <v>7.5</v>
@@ -4210,24 +4502,24 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
+        <v>249</v>
+      </c>
+      <c r="P51" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" t="s">
         <v>252</v>
-      </c>
-      <c r="P51" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" t="s">
-        <v>255</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -4239,10 +4531,10 @@
         <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I52">
         <v>7.5</v>
@@ -4257,7 +4549,7 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P52" t="s">
         <v>25</v>
@@ -4265,20 +4557,750 @@
       <c r="Q52">
         <v>1</v>
       </c>
-      <c r="BA52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54">
+        <v>201900025</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
         <v>258</v>
       </c>
-      <c r="B53" t="s">
+      <c r="H54" t="s">
+        <v>258</v>
+      </c>
+      <c r="I54">
+        <v>7.5</v>
+      </c>
+      <c r="J54" t="s">
         <v>259</v>
       </c>
+      <c r="K54">
+        <v>2022</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>170</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AV54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55">
+        <v>202200104</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" t="s">
+        <v>264</v>
+      </c>
+      <c r="H55" t="s">
+        <v>265</v>
+      </c>
+      <c r="I55">
+        <v>7.5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>259</v>
+      </c>
+      <c r="K55">
+        <v>2022</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="P55" t="s">
+        <v>266</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56">
+        <v>201800032</v>
+      </c>
+      <c r="C56" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" t="s">
+        <v>269</v>
+      </c>
+      <c r="H56" t="s">
+        <v>271</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>259</v>
+      </c>
+      <c r="K56">
+        <v>2022</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57">
+        <v>200300009</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G57" t="s">
+        <v>269</v>
+      </c>
+      <c r="H57" t="s">
+        <v>272</v>
+      </c>
+      <c r="I57">
+        <v>7.5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>259</v>
+      </c>
+      <c r="K57">
+        <v>2022</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58">
+        <v>200600027</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" t="s">
+        <v>275</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="I58">
+        <v>7.5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>259</v>
+      </c>
+      <c r="K58">
+        <v>2022</v>
+      </c>
+      <c r="L58" t="s">
+        <v>187</v>
+      </c>
+      <c r="M58" t="s">
+        <v>276</v>
+      </c>
+      <c r="P58" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AY58">
+        <v>1</v>
+      </c>
+      <c r="AZ58">
+        <v>1</v>
+      </c>
+      <c r="BC58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59">
+        <v>201900054</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" t="s">
+        <v>281</v>
+      </c>
+      <c r="H59" t="s">
+        <v>280</v>
+      </c>
+      <c r="I59">
+        <v>7.5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>259</v>
+      </c>
+      <c r="K59">
+        <v>2022</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>283</v>
+      </c>
+      <c r="P59" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60">
+        <v>201900398</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60" t="s">
+        <v>285</v>
+      </c>
+      <c r="I60">
+        <v>7.5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>259</v>
+      </c>
+      <c r="K60">
+        <v>2022</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="P60" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61">
+        <v>200600023</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" t="s">
+        <v>288</v>
+      </c>
+      <c r="H61" t="s">
+        <v>290</v>
+      </c>
+      <c r="I61">
+        <v>7.5</v>
+      </c>
+      <c r="J61" t="s">
+        <v>259</v>
+      </c>
+      <c r="K61">
+        <v>2022</v>
+      </c>
+      <c r="L61" t="s">
+        <v>154</v>
+      </c>
+      <c r="M61" t="s">
+        <v>276</v>
+      </c>
+      <c r="P61" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AY61">
+        <v>1</v>
+      </c>
+      <c r="AZ61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62">
+        <v>201800055</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" t="s">
+        <v>280</v>
+      </c>
+      <c r="H62" t="s">
+        <v>294</v>
+      </c>
+      <c r="I62">
+        <v>7.5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>259</v>
+      </c>
+      <c r="K62">
+        <v>2022</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="P62" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1</v>
+      </c>
+      <c r="AU62">
+        <v>1</v>
+      </c>
+      <c r="BE62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63">
+        <v>201800028</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" t="s">
+        <v>297</v>
+      </c>
+      <c r="H63" t="s">
+        <v>297</v>
+      </c>
+      <c r="I63">
+        <v>7.5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>259</v>
+      </c>
+      <c r="K63">
+        <v>2022</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="P63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>299</v>
+      </c>
+      <c r="B64">
+        <v>201800173</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" t="s">
+        <v>297</v>
+      </c>
+      <c r="I64">
+        <v>7.5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>259</v>
+      </c>
+      <c r="K64">
+        <v>2022</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="P64">
+        <v>201800171</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1</v>
+      </c>
+      <c r="AU64">
+        <v>1</v>
+      </c>
+      <c r="BE64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65">
+        <v>201800025</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" t="s">
+        <v>297</v>
+      </c>
+      <c r="H65" t="s">
+        <v>301</v>
+      </c>
+      <c r="I65">
+        <v>7.5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>259</v>
+      </c>
+      <c r="K65">
+        <v>2022</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>282</v>
+      </c>
+      <c r="P65">
+        <v>201800022</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1</v>
+      </c>
+      <c r="AU65">
+        <v>1</v>
+      </c>
+      <c r="BE65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66">
+        <v>201800024</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G66" t="s">
+        <v>297</v>
+      </c>
+      <c r="H66" t="s">
+        <v>303</v>
+      </c>
+      <c r="I66">
+        <v>7.5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>259</v>
+      </c>
+      <c r="K66">
+        <v>2022</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="P66">
+        <v>201800022</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
+      <c r="AU66">
+        <v>1</v>
+      </c>
+      <c r="BE66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67">
+        <v>201300007</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67" t="s">
+        <v>304</v>
+      </c>
+      <c r="H67" t="s">
+        <v>305</v>
+      </c>
+      <c r="I67">
+        <v>7.5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>259</v>
+      </c>
+      <c r="K67">
+        <v>2022</v>
+      </c>
+      <c r="L67" t="s">
+        <v>154</v>
+      </c>
+      <c r="M67" t="s">
+        <v>208</v>
+      </c>
+      <c r="P67" t="s">
+        <v>306</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AW67">
+        <v>1</v>
+      </c>
+      <c r="AY67">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY53" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}"/>
+  <autoFilter ref="A1:AZ53" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Faculty of Social Sciences"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4287,21 +5309,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B9512465F22C14FB160D435DD2FE48B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcc4c4d2e32b8c8f0f92638a638e9a27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a49ec6c6-c19a-430d-9e65-9140718fcb4c" xmlns:ns4="11ce1b15-5995-4f89-8454-542f1e930605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b0d976c7959d1c14d6037bfd1f975a8" ns3:_="" ns4:_="">
     <xsd:import namespace="a49ec6c6-c19a-430d-9e65-9140718fcb4c"/>
@@ -4530,32 +5537,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258C3525-B843-4DF1-AAB7-9A7C9FE670BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a49ec6c6-c19a-430d-9e65-9140718fcb4c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="11ce1b15-5995-4f89-8454-542f1e930605"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0F0E3E-AAE2-4269-B402-B7C42270AD4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{755A2082-2DEF-4DFD-A722-00F032A28139}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4572,4 +5569,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0F0E3E-AAE2-4269-B402-B7C42270AD4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258C3525-B843-4DF1-AAB7-9A7C9FE670BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a49ec6c6-c19a-430d-9e65-9140718fcb4c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="11ce1b15-5995-4f89-8454-542f1e930605"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/DS courses list.xlsx
+++ b/Data/DS courses list.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ola\OneDrive - Universiteit Utrecht\Documents\GitHub\UU-DS-courses\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C279FF1-E592-4FC1-8C22-BD717C3E6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F5F4F4-273D-4BC6-914B-FAB1F571B413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="-12765" windowWidth="28965" windowHeight="11730" xr2:uid="{1526A550-0408-4384-9B3B-2B5C51FB6CCB}"/>
+    <workbookView xWindow="-1020" yWindow="-13140" windowWidth="28965" windowHeight="11730" xr2:uid="{1526A550-0408-4384-9B3B-2B5C51FB6CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1679,12 +1679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE67" sqref="BE67"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,7 +1917,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -2619,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -3055,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:51" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>209</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>214</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:56" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>227</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>251</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -5294,13 +5293,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ53" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Faculty of Social Sciences"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AZ67" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/DS courses list.xlsx
+++ b/Data/DS courses list.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ola\OneDrive - Universiteit Utrecht\Documents\GitHub\UU-DS-courses\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F5F4F4-273D-4BC6-914B-FAB1F571B413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F6BC5-5435-465C-A505-CCB750D8C9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="-13140" windowWidth="28965" windowHeight="11730" xr2:uid="{1526A550-0408-4384-9B3B-2B5C51FB6CCB}"/>
+    <workbookView xWindow="1500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{1526A550-0408-4384-9B3B-2B5C51FB6CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,6 @@
     <author>tc={55636430-28F9-427E-8FC9-0523E795980C}</author>
     <author>tc={4D3D460E-D00C-48E4-97F6-28235A8C037F}</author>
     <author>tc={2C1CB73F-0B60-41E5-AECE-1427034B9CE3}</author>
-    <author>tc={35885A4E-3B89-4D6A-95CD-08862DFB9430}</author>
     <author>tc={0477E9A7-5E83-41B8-965E-BC68BE4572C4}</author>
     <author>tc={E2FFAAF8-7744-465F-9701-9A2AFF0D8FD2}</author>
     <author>tc={971B0614-288D-4052-BBD0-23AC10C52401}</author>
@@ -56,6 +55,14 @@
     <author>tc={D9A68AAD-F7F5-48E9-86BF-E791855CE074}</author>
     <author>tc={D2CE96B7-DA8C-4491-9962-80A041D6783C}</author>
     <author>tc={0156854D-B856-40C8-9F6A-56D1A73DF7D0}</author>
+    <author>tc={8DC05F39-DC0F-403F-BD0D-9805E4149521}</author>
+    <author>tc={20009BA8-38A7-46E2-A547-E42B8BC3C6F9}</author>
+    <author>tc={76797D44-E9B7-4CA4-8DB3-ECF16F3623E0}</author>
+    <author>tc={B09121BD-C6B9-45B7-B068-F72C4CE45557}</author>
+    <author>tc={224FC773-6FA8-4FE7-BE1E-211C4660CC01}</author>
+    <author>tc={DC32272E-33B4-4E2C-8CF3-39D3CC2DB77C}</author>
+    <author>tc={FE67C216-38D7-4D76-8ABE-630EFFE97066}</author>
+    <author>tc={7B8D548D-F7CB-48BF-9340-F1F91B2165A2}</author>
   </authors>
   <commentList>
     <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{7912B0EA-387D-478B-95D3-9090A6112730}">
@@ -117,15 +124,7 @@
     using these data for estimation purposes</t>
       </text>
     </comment>
-    <comment ref="A35" authorId="5" shapeId="0" xr:uid="{35885A4E-3B89-4D6A-95CD-08862DFB9430}">
-      <text>
-        <t>[Komentarz podzielony na wątki]
-Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
-Komentarz:
-    The course covers the essentials of qualitative research, in particular techniques for identifying themes, the making of systematic comparisons, and grounding interpretation in theory. Finally, it focuses on the principles of dovetailing primary ethnographic research, secondary data, and larger theoretical frames.</t>
-      </text>
-    </comment>
-    <comment ref="AO49" authorId="6" shapeId="0" xr:uid="{0477E9A7-5E83-41B8-965E-BC68BE4572C4}">
+    <comment ref="AO47" authorId="5" shapeId="0" xr:uid="{0477E9A7-5E83-41B8-965E-BC68BE4572C4}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -133,7 +132,7 @@
     inference</t>
       </text>
     </comment>
-    <comment ref="A55" authorId="7" shapeId="0" xr:uid="{E2FFAAF8-7744-465F-9701-9A2AFF0D8FD2}">
+    <comment ref="A53" authorId="6" shapeId="0" xr:uid="{E2FFAAF8-7744-465F-9701-9A2AFF0D8FD2}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,7 +140,7 @@
     This course mentions in discription a statistical software use but I'm not sure what it is</t>
       </text>
     </comment>
-    <comment ref="AR62" authorId="8" shapeId="0" xr:uid="{971B0614-288D-4052-BBD0-23AC10C52401}">
+    <comment ref="AR60" authorId="7" shapeId="0" xr:uid="{971B0614-288D-4052-BBD0-23AC10C52401}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -149,7 +148,7 @@
     qualitative data</t>
       </text>
     </comment>
-    <comment ref="AU62" authorId="9" shapeId="0" xr:uid="{7C5818E2-1E6A-4677-95FD-D0E0F1BC44BF}">
+    <comment ref="AU60" authorId="8" shapeId="0" xr:uid="{7C5818E2-1E6A-4677-95FD-D0E0F1BC44BF}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -157,7 +156,7 @@
     The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
       </text>
     </comment>
-    <comment ref="A63" authorId="10" shapeId="0" xr:uid="{0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}">
+    <comment ref="A61" authorId="9" shapeId="0" xr:uid="{0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +166,7 @@
     only spss mantioned in the literature</t>
       </text>
     </comment>
-    <comment ref="AR64" authorId="11" shapeId="0" xr:uid="{B346AB8C-D5F8-4A60-B1CA-15714598AC1D}">
+    <comment ref="AR62" authorId="10" shapeId="0" xr:uid="{B346AB8C-D5F8-4A60-B1CA-15714598AC1D}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +174,7 @@
     qualitative data</t>
       </text>
     </comment>
-    <comment ref="AU64" authorId="12" shapeId="0" xr:uid="{FA9CD2C0-F5EE-473A-BF68-EE1E51FD7EED}">
+    <comment ref="AU62" authorId="11" shapeId="0" xr:uid="{FA9CD2C0-F5EE-473A-BF68-EE1E51FD7EED}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +182,7 @@
     The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
       </text>
     </comment>
-    <comment ref="AR65" authorId="13" shapeId="0" xr:uid="{74E5C956-2E55-47CF-908B-6DF2CA8BFF70}">
+    <comment ref="AR63" authorId="12" shapeId="0" xr:uid="{74E5C956-2E55-47CF-908B-6DF2CA8BFF70}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +190,7 @@
     qualitative data</t>
       </text>
     </comment>
-    <comment ref="AU65" authorId="14" shapeId="0" xr:uid="{D9A68AAD-F7F5-48E9-86BF-E791855CE074}">
+    <comment ref="AU63" authorId="13" shapeId="0" xr:uid="{D9A68AAD-F7F5-48E9-86BF-E791855CE074}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +198,7 @@
     The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
       </text>
     </comment>
-    <comment ref="AR66" authorId="15" shapeId="0" xr:uid="{D2CE96B7-DA8C-4491-9962-80A041D6783C}">
+    <comment ref="AR64" authorId="14" shapeId="0" xr:uid="{D2CE96B7-DA8C-4491-9962-80A041D6783C}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,7 +206,7 @@
     The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
       </text>
     </comment>
-    <comment ref="AU66" authorId="16" shapeId="0" xr:uid="{0156854D-B856-40C8-9F6A-56D1A73DF7D0}">
+    <comment ref="AU64" authorId="15" shapeId="0" xr:uid="{0156854D-B856-40C8-9F6A-56D1A73DF7D0}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,12 +214,89 @@
     The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</t>
       </text>
     </comment>
+    <comment ref="H67" authorId="16" shapeId="0" xr:uid="{8DC05F39-DC0F-403F-BD0D-9805E4149521}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    he is not anymore but still in osiris</t>
+      </text>
+    </comment>
+    <comment ref="S70" authorId="17" shapeId="0" xr:uid="{20009BA8-38A7-46E2-A547-E42B8BC3C6F9}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    ethics of a research</t>
+      </text>
+    </comment>
+    <comment ref="A74" authorId="18" shapeId="0" xr:uid="{76797D44-E9B7-4CA4-8DB3-ECF16F3623E0}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    This course is hard to asses for me 
+After taking this course, the student will be able to:
+Independently build an experiment on the computer.
+Analyse data from self-built experiment using a computer.
+These skills are indispensable for undergraduate research.
+Relationship between tests and learning objectives
+The test consists of making assignments in which experiments are developed and data are analysed.
+Content
+In this course, students acquire skills needed to set up a psychological experiment. The practical consists of five assignments. In these assignments, the student develops computer-based experiments and/or questionnaires and carries out data processing. The tools used to set up experiments and perform data processing include a graphical experiment builder and Microsoft Excel.</t>
+      </text>
+    </comment>
+    <comment ref="S76" authorId="19" shapeId="0" xr:uid="{B09121BD-C6B9-45B7-B068-F72C4CE45557}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    To be able to read, describe and interpret quantitative empirical data, tables and graphs on socio-demographic topics
+Apply social science theories to interpret and explain empirical data
+Being able to derive and formulate testable hypotheses</t>
+      </text>
+    </comment>
+    <comment ref="A80" authorId="20" shapeId="0" xr:uid="{224FC773-6FA8-4FE7-BE1E-211C4660CC01}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    Its I think more about qualitative research and its hard to asses. 
+DISCRIPTION
+After students have completed their fieldwork, the main task that needs to go hand-in-hand with writing is the combination of such first-hand research with secondary data (historical, socio-economic, media-based, environmental, legal, etc.), and finally with the larger, more general theoretical questions students set out to answer or the theoretical debate they are addressing. This practical seminar initiates the writing of the M.Sc. thesis, and teaches students how to use their empirical knowledge and secondary materials to develop broader interpretations about their study in a meaningful relationship with the theoretical frame of their research question.
+The course covers the essentials of qualitative research, in particular techniques for identifying themes, the making of systematic comparisons, and grounding interpretation in theory. Finally, it focuses on the principles of dovetailing primary ethnographic research, secondary data, and larger theoretical frames.</t>
+      </text>
+    </comment>
+    <comment ref="A81" authorId="21" shapeId="0" xr:uid="{DC32272E-33B4-4E2C-8CF3-39D3CC2DB77C}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    it is said they analize dataset but it is not mentioned with what tool if any</t>
+      </text>
+    </comment>
+    <comment ref="A85" authorId="22" shapeId="0" xr:uid="{FE67C216-38D7-4D76-8ABE-630EFFE97066}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    This program list "software" I dont know which. In requiraments thay said that basic skils from SPSS, Stata, or R are desired</t>
+      </text>
+    </comment>
+    <comment ref="A90" authorId="23" shapeId="0" xr:uid="{7B8D548D-F7CB-48BF-9340-F1F91B2165A2}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    they do theory about neuroscience. There is mentioned an eye tracking dataset interpretation and analysis but there is no explicitly said what is used for that</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="378">
   <si>
     <t>Course Name</t>
   </si>
@@ -809,18 +885,9 @@
     <t>SEM2</t>
   </si>
   <si>
-    <t>Integration of theory and data analysis </t>
-  </si>
-  <si>
-    <t>SEM3</t>
-  </si>
-  <si>
     <t>Cultural Anthropology: Sociocultural Transformation (res) (CSTM)</t>
   </si>
   <si>
-    <t>prof. dr. A.C.G.M. Robben</t>
-  </si>
-  <si>
     <t>Measurement and modelling with social data </t>
   </si>
   <si>
@@ -1164,13 +1231,235 @@
   </si>
   <si>
     <t xml:space="preserve">MSBBSS03 and MSBBSS04 </t>
+  </si>
+  <si>
+    <t>Causal Inference and Structural Equation Modeling</t>
+  </si>
+  <si>
+    <t>prof. dr. E.L. Hamaker</t>
+  </si>
+  <si>
+    <t>prof. dr. E.L. Hamaker, dr. N.K. Schuurman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSBBSS02 and MSBBSS03 and MSBBSS04 </t>
+  </si>
+  <si>
+    <t>Mplus </t>
+  </si>
+  <si>
+    <t>Computational inference with R</t>
+  </si>
+  <si>
+    <t>prof.dr. M.J.C.  Eijkemans</t>
+  </si>
+  <si>
+    <t>dr. P.M. van de Ven</t>
+  </si>
+  <si>
+    <t>Diagnostical Methods in Clinical Psychology</t>
+  </si>
+  <si>
+    <t>drs. J.M. Versteeg</t>
+  </si>
+  <si>
+    <t>Psychopathology (202100181), Psychopathology II (200300181), Psychopathology II (200400293), Psychopathology II (201400181), Psychopathology II (201400182), Psychopathology II (SW980003)</t>
+  </si>
+  <si>
+    <t>Doing Ethnography</t>
+  </si>
+  <si>
+    <t>dr. D. Jovanovic</t>
+  </si>
+  <si>
+    <t>dr. D. Jovanovic, dr. W.M. Sier</t>
+  </si>
+  <si>
+    <t>Cultural Anthropology: Sustainable Citizenship (SCIM)</t>
+  </si>
+  <si>
+    <t>Doing a Qualitative Research Project</t>
+  </si>
+  <si>
+    <t>H.J. Leplaa, MSc</t>
+  </si>
+  <si>
+    <t>Methods and Statistics in the Social Science (SW-MS-MI1), International Perspectives on Youth and Education (SW-PED-MI14), Child and Adolescent Relationships and Development (CARD) (SW-PED-MI13)</t>
+  </si>
+  <si>
+    <t>AR (SOC) (201800024), Applying research methods and statistics (201800028), AR (ISS) (201800025),  Research methods and statistics 2 (200300173), Research Methods and Statistics 2 (201100028), Research methods and statstics 2 (201100025), Research methods and statistics 2 (201100024), Research methods and statistics 2 psych. (200501023), AR (PW &amp; OWW) (201800173), ARM (PSY) (201800055)</t>
+  </si>
+  <si>
+    <t>limited number of participants</t>
+  </si>
+  <si>
+    <t>dr. P.J. Lugtig, Carina Fransen, Barry Schouten, Ton de Waal, Bart Bakker, Peter-Paul de Wolf, Vera Toepoel, Edwin de Jonge</t>
+  </si>
+  <si>
+    <t>Elective Statistical analysis with R</t>
+  </si>
+  <si>
+    <t>EMOS: Core module</t>
+  </si>
+  <si>
+    <t>dr. M.J.L.F. Cruyff</t>
+  </si>
+  <si>
+    <t>Graduate School for Social and Behavioural Sciences of Utrecht University</t>
+  </si>
+  <si>
+    <t>Experimental Methods and Statistics</t>
+  </si>
+  <si>
+    <t>dr. K.E. Overvliet</t>
+  </si>
+  <si>
+    <t>dr. K.E. Overvliet, dr. B. Liefooghe</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (CKIB)</t>
+  </si>
+  <si>
+    <t>Experimenting </t>
+  </si>
+  <si>
+    <t>dr. I.T.C. Hooge</t>
+  </si>
+  <si>
+    <t>dr. J.S. Benjamins, dr. R.S. Hessels</t>
+  </si>
+  <si>
+    <t>dr. J.G. de Kruijf</t>
+  </si>
+  <si>
+    <t>Exploring Ethnography</t>
+  </si>
+  <si>
+    <t>Family sociology: trends, theory and quantitative research</t>
+  </si>
+  <si>
+    <t>dr. M.D. Brons</t>
+  </si>
+  <si>
+    <t>dr. M.D. Brons, dr. A. Poortman, dr. Deni Mazrekaj, R.L.F. ten Kate, W.B.P. Kwint</t>
+  </si>
+  <si>
+    <t>Research methods and statistics 2 (201100024), AR (SOC) (201800024)</t>
+  </si>
+  <si>
+    <t>Foundation of research methods and statistics</t>
+  </si>
+  <si>
+    <t>drs. M.A.A. den Otter</t>
+  </si>
+  <si>
+    <t>Social Education and Youth Policy (SW-PED-MI12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentals of statistics </t>
+  </si>
+  <si>
+    <t>dr. D.J. Hessen</t>
+  </si>
+  <si>
+    <t>MSc. L. Boeschoten</t>
+  </si>
+  <si>
+    <t>Integration of theory and data analysis</t>
+  </si>
+  <si>
+    <t>prof. dr. C.G. Koonings</t>
+  </si>
+  <si>
+    <t>Ethnographic fieldwork (201100072)</t>
+  </si>
+  <si>
+    <t>Integrative Practicum I: Research Skills</t>
+  </si>
+  <si>
+    <t>dr. B. Liefooghe</t>
+  </si>
+  <si>
+    <t>dr. C. Zhang</t>
+  </si>
+  <si>
+    <t>Social and Health Psychology (SHPM)</t>
+  </si>
+  <si>
+    <t>Integrative Practicum II: Research Methods</t>
+  </si>
+  <si>
+    <t>dr. H. Marien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrative practical I </t>
+  </si>
+  <si>
+    <t>dr. E. van de Weijer-Bergsma</t>
+  </si>
+  <si>
+    <t>Integrative practical II</t>
+  </si>
+  <si>
+    <t>dr. B. Flunger</t>
+  </si>
+  <si>
+    <t>dr. B. Flunger, prof. dr. Tamara van Gog</t>
+  </si>
+  <si>
+    <t>Internet Social Media and Networks</t>
+  </si>
+  <si>
+    <t>dr. R. Corten, dr. Deni Mazrekaj, dr. L.G.M. Drouhot</t>
+  </si>
+  <si>
+    <t>Sociology: Contemporary Social Problems (ASVM)</t>
+  </si>
+  <si>
+    <t>Applied Cognitive Psychology, Clinical Child and Adolescent Psychology, Clinical Child Family and Education Studies, Clinical Psychology, Sustainable Citizenship, Educational Sciences, Neuropsychology, Social Policy and Public Health, Social Health and Organisational Psychology, Contemporary Social Problems, Youth Education and Society, Youth Studies</t>
+  </si>
+  <si>
+    <t>Introduction to Biomedical Statistics</t>
+  </si>
+  <si>
+    <t>M. Schipper</t>
+  </si>
+  <si>
+    <t>M. Schipper, M. van Smeden, M.J.C. Eijkemans, prof. dr. RM van den Bor</t>
+  </si>
+  <si>
+    <t>Introduction to Cognitive Models</t>
+  </si>
+  <si>
+    <t>Introduction to Multilevel modelling and Psychometrics</t>
+  </si>
+  <si>
+    <t>dr. E. Aarts, dr. D.J. Hessen</t>
+  </si>
+  <si>
+    <t>Multivariate statistics (201300002) and Computational inference with R (201300004) and Fundamentals of statistics (201300008)</t>
+  </si>
+  <si>
+    <t>Introduction to Research Methods and Statistics (PSY) </t>
+  </si>
+  <si>
+    <t>Introduction to educational neuroscience</t>
+  </si>
+  <si>
+    <t>prof. dr. P.P.M. Leseman</t>
+  </si>
+  <si>
+    <t>dr. A. Wijnroks, dr. O. Oudgenoeg-Paz, prof. dr. Tamara van Gog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,12 +1523,6 @@
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1635,55 +1918,89 @@
   <threadedComment ref="AO31" dT="2022-10-08T17:47:06.98" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{2C1CB73F-0B60-41E5-AECE-1427034B9CE3}">
     <text>using these data for estimation purposes</text>
   </threadedComment>
-  <threadedComment ref="A35" dT="2022-10-08T18:10:51.15" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{35885A4E-3B89-4D6A-95CD-08862DFB9430}">
-    <text>The course covers the essentials of qualitative research, in particular techniques for identifying themes, the making of systematic comparisons, and grounding interpretation in theory. Finally, it focuses on the principles of dovetailing primary ethnographic research, secondary data, and larger theoretical frames.</text>
-  </threadedComment>
-  <threadedComment ref="AO49" dT="2022-10-11T10:33:57.67" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0477E9A7-5E83-41B8-965E-BC68BE4572C4}">
+  <threadedComment ref="AO47" dT="2022-10-11T10:33:57.67" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0477E9A7-5E83-41B8-965E-BC68BE4572C4}">
     <text>inference</text>
   </threadedComment>
-  <threadedComment ref="A55" dT="2022-10-12T09:45:31.51" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{E2FFAAF8-7744-465F-9701-9A2AFF0D8FD2}">
+  <threadedComment ref="A53" dT="2022-10-12T09:45:31.51" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{E2FFAAF8-7744-465F-9701-9A2AFF0D8FD2}">
     <text>This course mentions in discription a statistical software use but I'm not sure what it is</text>
   </threadedComment>
-  <threadedComment ref="AR62" dT="2022-10-12T15:01:51.51" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{971B0614-288D-4052-BBD0-23AC10C52401}">
+  <threadedComment ref="AR60" dT="2022-10-12T15:01:51.51" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{971B0614-288D-4052-BBD0-23AC10C52401}">
     <text>qualitative data</text>
   </threadedComment>
-  <threadedComment ref="AU62" dT="2022-10-12T15:15:59.00" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{7C5818E2-1E6A-4677-95FD-D0E0F1BC44BF}">
+  <threadedComment ref="AU60" dT="2022-10-12T15:15:59.00" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{7C5818E2-1E6A-4677-95FD-D0E0F1BC44BF}">
     <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
   </threadedComment>
-  <threadedComment ref="A63" dT="2022-10-12T15:26:01.31" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}">
+  <threadedComment ref="A61" dT="2022-10-12T15:26:01.31" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}">
     <text>no course description</text>
   </threadedComment>
-  <threadedComment ref="A63" dT="2022-10-12T15:26:28.06" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{F121CDAB-DC8B-48D6-9505-C2300F077CB9}" parentId="{0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}">
+  <threadedComment ref="A61" dT="2022-10-12T15:26:28.06" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{F121CDAB-DC8B-48D6-9505-C2300F077CB9}" parentId="{0F9D3427-B4EC-4231-A8B8-1CD7AE2C5236}">
     <text>only spss mantioned in the literature</text>
   </threadedComment>
-  <threadedComment ref="AR64" dT="2022-10-12T15:29:32.58" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{B346AB8C-D5F8-4A60-B1CA-15714598AC1D}">
+  <threadedComment ref="AR62" dT="2022-10-12T15:29:32.58" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{B346AB8C-D5F8-4A60-B1CA-15714598AC1D}">
     <text>qualitative data</text>
   </threadedComment>
-  <threadedComment ref="AU64" dT="2022-10-12T15:29:11.55" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{FA9CD2C0-F5EE-473A-BF68-EE1E51FD7EED}">
+  <threadedComment ref="AU62" dT="2022-10-12T15:29:11.55" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{FA9CD2C0-F5EE-473A-BF68-EE1E51FD7EED}">
     <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
   </threadedComment>
-  <threadedComment ref="AR65" dT="2022-10-12T15:33:36.58" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{74E5C956-2E55-47CF-908B-6DF2CA8BFF70}">
+  <threadedComment ref="AR63" dT="2022-10-12T15:33:36.58" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{74E5C956-2E55-47CF-908B-6DF2CA8BFF70}">
     <text>qualitative data</text>
   </threadedComment>
-  <threadedComment ref="AU65" dT="2022-10-12T15:33:22.60" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{D9A68AAD-F7F5-48E9-86BF-E791855CE074}">
+  <threadedComment ref="AU63" dT="2022-10-12T15:33:22.60" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{D9A68AAD-F7F5-48E9-86BF-E791855CE074}">
     <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
   </threadedComment>
-  <threadedComment ref="AR66" dT="2022-10-12T15:36:24.67" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{D2CE96B7-DA8C-4491-9962-80A041D6783C}">
+  <threadedComment ref="AR64" dT="2022-10-12T15:36:24.67" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{D2CE96B7-DA8C-4491-9962-80A041D6783C}">
     <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
   </threadedComment>
-  <threadedComment ref="AU66" dT="2022-10-12T15:36:18.72" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0156854D-B856-40C8-9F6A-56D1A73DF7D0}">
+  <threadedComment ref="AU64" dT="2022-10-12T15:36:18.72" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{0156854D-B856-40C8-9F6A-56D1A73DF7D0}">
     <text>The course is hard to asses becuse the description include "Coding of qualitative data" there is no information how and If thay learn the concepts or that they actually apply that</text>
+  </threadedComment>
+  <threadedComment ref="H67" dT="2022-10-13T16:57:22.75" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{8DC05F39-DC0F-403F-BD0D-9805E4149521}">
+    <text>he is not anymore but still in osiris</text>
+  </threadedComment>
+  <threadedComment ref="S70" dT="2022-10-17T09:51:38.51" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{20009BA8-38A7-46E2-A547-E42B8BC3C6F9}">
+    <text>ethics of a research</text>
+  </threadedComment>
+  <threadedComment ref="A74" dT="2022-10-17T11:08:32.19" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{76797D44-E9B7-4CA4-8DB3-ECF16F3623E0}">
+    <text>This course is hard to asses for me 
+After taking this course, the student will be able to:
+Independently build an experiment on the computer.
+Analyse data from self-built experiment using a computer.
+These skills are indispensable for undergraduate research.
+Relationship between tests and learning objectives
+The test consists of making assignments in which experiments are developed and data are analysed.
+Content
+In this course, students acquire skills needed to set up a psychological experiment. The practical consists of five assignments. In these assignments, the student develops computer-based experiments and/or questionnaires and carries out data processing. The tools used to set up experiments and perform data processing include a graphical experiment builder and Microsoft Excel.</text>
+  </threadedComment>
+  <threadedComment ref="S76" dT="2022-10-17T11:21:30.89" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{B09121BD-C6B9-45B7-B068-F72C4CE45557}">
+    <text>To be able to read, describe and interpret quantitative empirical data, tables and graphs on socio-demographic topics
+Apply social science theories to interpret and explain empirical data
+Being able to derive and formulate testable hypotheses</text>
+  </threadedComment>
+  <threadedComment ref="A80" dT="2022-10-17T11:37:25.89" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{224FC773-6FA8-4FE7-BE1E-211C4660CC01}">
+    <text>Its I think more about qualitative research and its hard to asses. 
+DISCRIPTION
+After students have completed their fieldwork, the main task that needs to go hand-in-hand with writing is the combination of such first-hand research with secondary data (historical, socio-economic, media-based, environmental, legal, etc.), and finally with the larger, more general theoretical questions students set out to answer or the theoretical debate they are addressing. This practical seminar initiates the writing of the M.Sc. thesis, and teaches students how to use their empirical knowledge and secondary materials to develop broader interpretations about their study in a meaningful relationship with the theoretical frame of their research question.
+The course covers the essentials of qualitative research, in particular techniques for identifying themes, the making of systematic comparisons, and grounding interpretation in theory. Finally, it focuses on the principles of dovetailing primary ethnographic research, secondary data, and larger theoretical frames.</text>
+  </threadedComment>
+  <threadedComment ref="A81" dT="2022-10-17T11:40:58.12" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{DC32272E-33B4-4E2C-8CF3-39D3CC2DB77C}">
+    <text>it is said they analize dataset but it is not mentioned with what tool if any</text>
+  </threadedComment>
+  <threadedComment ref="A85" dT="2022-10-17T13:19:44.88" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{FE67C216-38D7-4D76-8ABE-630EFFE97066}">
+    <text>This program list "software" I dont know which. In requiraments thay said that basic skils from SPSS, Stata, or R are desired</text>
+  </threadedComment>
+  <threadedComment ref="A90" dT="2022-10-17T14:27:16.67" personId="{A69B1243-3DE0-4799-B9E4-A811CFD9ED7E}" id="{7B8D548D-F7CB-48BF-9340-F1F91B2165A2}">
+    <text>they do theory about neuroscience. There is mentioned an eye tracking dataset interpretation and analysis but there is no explicitly said what is used for that</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}">
-  <dimension ref="A1:BE67"/>
+  <dimension ref="A1:BF90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,7 +2061,7 @@
     <col min="54" max="54" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1800,13 +2117,13 @@
         <v>11</v>
       </c>
       <c r="S1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T1" t="s">
         <v>64</v>
       </c>
       <c r="U1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V1" t="s">
         <v>88</v>
@@ -1830,7 +2147,7 @@
         <v>59</v>
       </c>
       <c r="AC1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AD1" t="s">
         <v>32</v>
@@ -1863,10 +2180,10 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AO1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AP1" t="s">
         <v>50</v>
@@ -1899,25 +2216,28 @@
         <v>173</v>
       </c>
       <c r="AZ1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="BA1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="BB1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="BC1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="BD1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="BE1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1964,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2032,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2088,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2141,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2206,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -2262,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2312,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -2362,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -2412,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -2462,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2506,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -2559,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -2618,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -2677,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -3613,15 +3933,15 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B34">
-        <v>202200015</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
+        <v>201800138</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
@@ -3630,42 +3950,57 @@
         <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>192</v>
+      </c>
+      <c r="H34" t="s">
+        <v>193</v>
       </c>
       <c r="I34">
+        <v>7.5</v>
+      </c>
+      <c r="J34">
+        <v>2018</v>
+      </c>
+      <c r="K34">
+        <v>2022</v>
+      </c>
+      <c r="L34">
         <v>2</v>
       </c>
-      <c r="K34">
-        <v>2022</v>
-      </c>
-      <c r="L34" t="s">
-        <v>187</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>171</v>
+      <c r="M34" t="s">
+        <v>190</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P34">
+        <v>200300022</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>188</v>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AZ34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>189</v>
       </c>
       <c r="B35">
-        <v>201000091</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
+        <v>201800139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
@@ -3673,14 +4008,8 @@
       <c r="F35" t="s">
         <v>171</v>
       </c>
-      <c r="G35" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" t="s">
-        <v>191</v>
-      </c>
       <c r="I35">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>2018</v>
@@ -3688,22 +4017,16 @@
       <c r="K35">
         <v>2022</v>
       </c>
-      <c r="L35" t="s">
-        <v>189</v>
-      </c>
-      <c r="M35" t="s">
-        <v>190</v>
-      </c>
-      <c r="P35">
-        <v>201100072</v>
-      </c>
-    </row>
-    <row r="36" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B36">
-        <v>201800138</v>
+        <v>201500130</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -3715,69 +4038,69 @@
         <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
-      </c>
-      <c r="H36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I36">
         <v>7.5</v>
       </c>
       <c r="J36">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="K36">
         <v>2022</v>
       </c>
       <c r="L36">
-        <v>2</v>
-      </c>
-      <c r="M36" t="s">
-        <v>193</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="P36">
-        <v>200300022</v>
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>196</v>
+      </c>
+      <c r="P36" t="s">
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
-      <c r="AO36">
-        <v>1</v>
-      </c>
-      <c r="AR36">
-        <v>1</v>
-      </c>
-      <c r="AZ36">
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B37">
-        <v>201800139</v>
-      </c>
-      <c r="C37" t="s">
-        <v>197</v>
+        <v>200300022</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s">
         <v>171</v>
       </c>
+      <c r="G37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" t="s">
+        <v>203</v>
+      </c>
       <c r="I37">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J37">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="K37">
         <v>2022</v>
@@ -3785,16 +4108,31 @@
       <c r="L37">
         <v>2</v>
       </c>
+      <c r="N37" t="s">
+        <v>200</v>
+      </c>
+      <c r="P37" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AZ37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B38">
-        <v>201500130</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
+        <v>201300001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
@@ -3802,9 +4140,6 @@
       <c r="F38" t="s">
         <v>171</v>
       </c>
-      <c r="G38" t="s">
-        <v>201</v>
-      </c>
       <c r="I38">
         <v>7.5</v>
       </c>
@@ -3814,87 +4149,57 @@
       <c r="K38">
         <v>2022</v>
       </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
-      <c r="N38" t="s">
-        <v>199</v>
+      <c r="L38" t="s">
+        <v>154</v>
+      </c>
+      <c r="M38" t="s">
+        <v>205</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="T38">
+        <v>171</v>
+      </c>
+      <c r="U38">
         <v>1</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
       <c r="AE38">
         <v>1</v>
       </c>
       <c r="AK38">
         <v>1</v>
       </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>202</v>
+      <c r="A39" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="B39">
-        <v>200300022</v>
+        <v>202100022</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
-      <c r="E39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39">
-        <v>7.5</v>
-      </c>
-      <c r="J39">
-        <v>2015</v>
-      </c>
-      <c r="K39">
-        <v>2022</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>203</v>
-      </c>
-      <c r="P39" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO39">
-        <v>1</v>
-      </c>
-      <c r="AR39">
-        <v>1</v>
-      </c>
-      <c r="AZ39">
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
         <v>207</v>
-      </c>
-      <c r="B40">
-        <v>201300001</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -3903,68 +4208,146 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" t="s">
+        <v>209</v>
       </c>
       <c r="I40">
         <v>7.5</v>
       </c>
       <c r="J40">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="K40">
         <v>2022</v>
       </c>
-      <c r="L40" t="s">
-        <v>154</v>
+      <c r="L40">
+        <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="Y40">
+        <v>25</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
         <v>1</v>
       </c>
       <c r="AA40">
         <v>1</v>
       </c>
-      <c r="AE40">
-        <v>1</v>
-      </c>
       <c r="AK40">
         <v>1</v>
       </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
       <c r="AO40">
         <v>1</v>
       </c>
       <c r="AQ40">
         <v>1</v>
       </c>
-      <c r="AR40">
+      <c r="AU40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+      <c r="AY40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41">
-        <v>202100022</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41">
+        <v>7.5</v>
+      </c>
+      <c r="J41">
+        <v>2021</v>
+      </c>
+      <c r="K41">
+        <v>2022</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41" t="s">
+        <v>213</v>
+      </c>
+      <c r="P41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AU41">
+        <v>1</v>
+      </c>
+      <c r="AW41">
+        <v>1</v>
+      </c>
+      <c r="AY41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" t="s">
-        <v>210</v>
+        <v>218</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -3973,134 +4356,68 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
-      </c>
-      <c r="H42" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="I42">
-        <v>7.5</v>
-      </c>
-      <c r="J42">
-        <v>2021</v>
+        <v>1.5</v>
       </c>
       <c r="K42">
         <v>2022</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
-        <v>213</v>
-      </c>
-      <c r="P42" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
+      <c r="R42" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
         <v>1</v>
       </c>
       <c r="AK42">
-        <v>1</v>
-      </c>
-      <c r="AL42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AQ42">
-        <v>1</v>
-      </c>
-      <c r="AU42">
-        <v>1</v>
-      </c>
-      <c r="AW42">
-        <v>1</v>
-      </c>
-      <c r="AY42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" t="s">
-        <v>25</v>
+        <v>219</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
       </c>
       <c r="E43" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="H43" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="I43">
-        <v>7.5</v>
-      </c>
-      <c r="J43">
-        <v>2021</v>
+        <v>1.5</v>
       </c>
       <c r="K43">
         <v>2022</v>
       </c>
-      <c r="L43">
-        <v>2</v>
-      </c>
-      <c r="M43" t="s">
-        <v>216</v>
-      </c>
-      <c r="P43" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AA43">
-        <v>1</v>
-      </c>
-      <c r="AB43">
-        <v>1</v>
-      </c>
-      <c r="AC43">
-        <v>1</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
+      <c r="R43" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="AE43">
         <v>1</v>
       </c>
-      <c r="AK43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>1</v>
-      </c>
-      <c r="AU43">
-        <v>1</v>
-      </c>
-      <c r="AW43">
+      <c r="AG43">
         <v>1</v>
       </c>
       <c r="AY43">
@@ -4109,22 +4426,25 @@
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" t="s">
-        <v>25</v>
+        <v>224</v>
+      </c>
+      <c r="B44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
       </c>
       <c r="E44" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+      <c r="H44" t="s">
+        <v>231</v>
       </c>
       <c r="I44">
         <v>1.5</v>
@@ -4132,31 +4452,28 @@
       <c r="K44">
         <v>2022</v>
       </c>
-      <c r="R44" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC44">
-        <v>1</v>
+      <c r="R44" t="s">
+        <v>228</v>
       </c>
       <c r="AE44">
         <v>1</v>
       </c>
-      <c r="AG44">
-        <v>1</v>
-      </c>
-      <c r="AK44">
+      <c r="AY44">
+        <v>1</v>
+      </c>
+      <c r="BA44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
+        <v>227</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
       </c>
       <c r="E45" t="s">
         <v>17</v>
@@ -4165,10 +4482,10 @@
         <v>171</v>
       </c>
       <c r="G45" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H45" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I45">
         <v>1.5</v>
@@ -4176,13 +4493,34 @@
       <c r="K45">
         <v>2022</v>
       </c>
-      <c r="R45" s="7" t="s">
-        <v>218</v>
+      <c r="O45">
+        <v>60</v>
+      </c>
+      <c r="R45" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
       </c>
       <c r="AE45">
         <v>1</v>
       </c>
-      <c r="AG45">
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AU45">
+        <v>1</v>
+      </c>
+      <c r="AW45">
         <v>1</v>
       </c>
       <c r="AY45">
@@ -4191,25 +4529,25 @@
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
+        <v>230</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
       </c>
       <c r="E46" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I46">
         <v>1.5</v>
@@ -4217,25 +4555,49 @@
       <c r="K46">
         <v>2022</v>
       </c>
+      <c r="O46">
+        <v>80</v>
+      </c>
       <c r="R46" t="s">
-        <v>231</v>
+        <v>220</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
       </c>
       <c r="AE46">
         <v>1</v>
       </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
+      <c r="AU46">
+        <v>1</v>
+      </c>
       <c r="AY46">
         <v>1</v>
       </c>
-      <c r="BA46">
+      <c r="BD46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
@@ -4247,10 +4609,10 @@
         <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H47" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I47">
         <v>1.5</v>
@@ -4259,15 +4621,12 @@
         <v>2022</v>
       </c>
       <c r="O47">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R47" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AA47">
+        <v>238</v>
+      </c>
+      <c r="Y47">
         <v>1</v>
       </c>
       <c r="AE47">
@@ -4279,10 +4638,7 @@
       <c r="AO47">
         <v>1</v>
       </c>
-      <c r="AQ47">
-        <v>1</v>
-      </c>
-      <c r="AU47">
+      <c r="AR47">
         <v>1</v>
       </c>
       <c r="AW47">
@@ -4294,10 +4650,10 @@
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -4309,10 +4665,10 @@
         <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I48">
         <v>1.5</v>
@@ -4324,48 +4680,36 @@
         <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AA48">
-        <v>1</v>
-      </c>
-      <c r="AB48">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="AE48">
         <v>1</v>
       </c>
-      <c r="AG48">
+      <c r="AK48">
         <v>1</v>
       </c>
       <c r="AO48">
         <v>1</v>
       </c>
-      <c r="AR48">
-        <v>1</v>
-      </c>
-      <c r="AU48">
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AW48">
         <v>1</v>
       </c>
       <c r="AY48">
         <v>1</v>
       </c>
-      <c r="BD48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>238</v>
-      </c>
-      <c r="B49" t="s">
-        <v>237</v>
-      </c>
-      <c r="D49" t="s">
-        <v>25</v>
+        <v>243</v>
+      </c>
+      <c r="B49">
+        <v>202100012</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
@@ -4374,51 +4718,42 @@
         <v>171</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I49">
-        <v>1.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="J49">
+        <v>2021</v>
       </c>
       <c r="K49">
         <v>2022</v>
       </c>
-      <c r="O49">
-        <v>50</v>
-      </c>
-      <c r="R49" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AK49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>1</v>
-      </c>
-      <c r="AR49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>246</v>
+      </c>
+      <c r="P49" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -4427,174 +4762,177 @@
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H50" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I50">
-        <v>1.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="J50">
+        <v>2015</v>
       </c>
       <c r="K50">
         <v>2022</v>
       </c>
-      <c r="O50">
-        <v>80</v>
-      </c>
-      <c r="R50" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-      <c r="AK50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>1</v>
-      </c>
-      <c r="AS50">
-        <v>1</v>
-      </c>
-      <c r="AW50">
-        <v>1</v>
-      </c>
-      <c r="AY50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>108</v>
+      </c>
+      <c r="P50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B51">
-        <v>202100012</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" t="s">
-        <v>247</v>
-      </c>
-      <c r="H51" t="s">
-        <v>248</v>
-      </c>
-      <c r="I51">
-        <v>7.5</v>
-      </c>
-      <c r="J51">
-        <v>2021</v>
-      </c>
-      <c r="K51">
-        <v>2022</v>
-      </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s">
-        <v>249</v>
-      </c>
-      <c r="P51" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>251</v>
-      </c>
-      <c r="B52" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" t="s">
-        <v>25</v>
+        <v>254</v>
+      </c>
+      <c r="B52">
+        <v>201900025</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I52">
         <v>7.5</v>
       </c>
-      <c r="J52">
-        <v>2015</v>
+      <c r="J52" t="s">
+        <v>256</v>
       </c>
       <c r="K52">
         <v>2022</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>108</v>
-      </c>
-      <c r="P52" t="s">
-        <v>25</v>
+        <v>170</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
-      <c r="BB52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>1</v>
+      </c>
+      <c r="AV52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>255</v>
-      </c>
-      <c r="B53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53">
+        <v>202200104</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" t="s">
+        <v>262</v>
+      </c>
+      <c r="I53">
+        <v>7.5</v>
+      </c>
+      <c r="J53" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>2022</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="P53" t="s">
+        <v>263</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B54">
-        <v>201900025</v>
+        <v>201800032</v>
+      </c>
+      <c r="C54" t="s">
+        <v>265</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
         <v>171</v>
       </c>
       <c r="G54" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H54" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="I54">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J54" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K54">
         <v>2022</v>
@@ -4602,34 +4940,22 @@
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="N54" t="s">
-        <v>170</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="AO54">
         <v>1</v>
       </c>
-      <c r="AV54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B55">
-        <v>202200104</v>
+        <v>200300009</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
@@ -4638,48 +4964,45 @@
         <v>171</v>
       </c>
       <c r="G55" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H55" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I55">
         <v>7.5</v>
       </c>
       <c r="J55" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K55">
         <v>2022</v>
       </c>
       <c r="L55">
-        <v>2</v>
-      </c>
-      <c r="P55" t="s">
-        <v>266</v>
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
-      <c r="AN55">
-        <v>1</v>
-      </c>
       <c r="AO55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B56">
-        <v>201800032</v>
-      </c>
-      <c r="C56" t="s">
-        <v>268</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
+        <v>200600027</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
@@ -4688,21 +5011,30 @@
         <v>171</v>
       </c>
       <c r="G56" t="s">
-        <v>269</v>
-      </c>
-      <c r="H56" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K56">
         <v>2022</v>
       </c>
-      <c r="L56">
+      <c r="L56" t="s">
+        <v>187</v>
+      </c>
+      <c r="M56" t="s">
+        <v>273</v>
+      </c>
+      <c r="P56" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q56">
         <v>1</v>
       </c>
       <c r="S56">
@@ -4711,43 +5043,58 @@
       <c r="AO56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AY56">
+        <v>1</v>
+      </c>
+      <c r="AZ56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>1</v>
+      </c>
+      <c r="BF56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B57">
-        <v>200300009</v>
+        <v>201900054</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
         <v>171</v>
       </c>
       <c r="G57" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H57" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I57">
         <v>7.5</v>
       </c>
       <c r="J57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K57">
         <v>2022</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>273</v>
+        <v>280</v>
+      </c>
+      <c r="P57" t="s">
+        <v>283</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -4759,45 +5106,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B58">
-        <v>200600027</v>
-      </c>
-      <c r="D58" t="s">
-        <v>25</v>
+        <v>201900398</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F58" t="s">
         <v>171</v>
       </c>
       <c r="G58" t="s">
-        <v>275</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I58">
         <v>7.5</v>
       </c>
       <c r="J58" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K58">
         <v>2022</v>
       </c>
-      <c r="L58" t="s">
-        <v>187</v>
-      </c>
-      <c r="M58" t="s">
-        <v>276</v>
+      <c r="L58">
+        <v>2</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -4808,75 +5149,72 @@
       <c r="AO58">
         <v>1</v>
       </c>
-      <c r="AY58">
-        <v>1</v>
-      </c>
-      <c r="AZ58">
-        <v>1</v>
-      </c>
-      <c r="BC58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B59">
-        <v>201900054</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
+        <v>200600023</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
         <v>171</v>
       </c>
       <c r="G59" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H59" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I59">
         <v>7.5</v>
       </c>
       <c r="J59" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K59">
         <v>2022</v>
       </c>
-      <c r="L59">
+      <c r="L59" t="s">
+        <v>154</v>
+      </c>
+      <c r="M59" t="s">
+        <v>273</v>
+      </c>
+      <c r="P59" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AY59">
+        <v>1</v>
+      </c>
+      <c r="AZ59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60">
+        <v>201800055</v>
+      </c>
+      <c r="D60">
         <v>2</v>
-      </c>
-      <c r="N59" t="s">
-        <v>283</v>
-      </c>
-      <c r="P59" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-      <c r="AO59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>284</v>
-      </c>
-      <c r="B60">
-        <v>201900398</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
       </c>
       <c r="E60" t="s">
         <v>84</v>
@@ -4885,95 +5223,89 @@
         <v>171</v>
       </c>
       <c r="G60" t="s">
-        <v>285</v>
+        <v>277</v>
+      </c>
+      <c r="H60" t="s">
+        <v>291</v>
       </c>
       <c r="I60">
         <v>7.5</v>
       </c>
       <c r="J60" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K60">
         <v>2022</v>
       </c>
       <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="P60" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1</v>
+      </c>
+      <c r="AU60">
+        <v>1</v>
+      </c>
+      <c r="BE60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61">
+        <v>201800028</v>
+      </c>
+      <c r="D61">
         <v>2</v>
       </c>
-      <c r="P60" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
-      <c r="AO60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>287</v>
-      </c>
-      <c r="B61">
-        <v>200600023</v>
-      </c>
-      <c r="D61" t="s">
-        <v>25</v>
-      </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s">
         <v>171</v>
       </c>
       <c r="G61" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H61" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I61">
         <v>7.5</v>
       </c>
       <c r="J61" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K61">
         <v>2022</v>
       </c>
-      <c r="L61" t="s">
-        <v>154</v>
-      </c>
-      <c r="M61" t="s">
-        <v>276</v>
+      <c r="L61">
+        <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="AO61">
-        <v>1</v>
-      </c>
-      <c r="AY61">
-        <v>1</v>
-      </c>
-      <c r="AZ61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B62">
-        <v>201800055</v>
+        <v>201800173</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -4985,28 +5317,22 @@
         <v>171</v>
       </c>
       <c r="G62" t="s">
-        <v>280</v>
-      </c>
-      <c r="H62" t="s">
         <v>294</v>
       </c>
       <c r="I62">
         <v>7.5</v>
       </c>
       <c r="J62" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K62">
         <v>2022</v>
       </c>
       <c r="L62">
-        <v>3</v>
-      </c>
-      <c r="P62" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <v>201800171</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -5024,12 +5350,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B63">
-        <v>201800028</v>
+        <v>201800025</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -5041,16 +5367,16 @@
         <v>171</v>
       </c>
       <c r="G63" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H63" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I63">
         <v>7.5</v>
       </c>
       <c r="J63" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K63">
         <v>2022</v>
@@ -5058,16 +5384,37 @@
       <c r="L63">
         <v>3</v>
       </c>
-      <c r="P63" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="N63" t="s">
+        <v>279</v>
+      </c>
+      <c r="P63">
+        <v>201800022</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1</v>
+      </c>
+      <c r="AU63">
+        <v>1</v>
+      </c>
+      <c r="BE63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>299</v>
       </c>
       <c r="B64">
-        <v>201800173</v>
+        <v>201800024</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -5079,22 +5426,28 @@
         <v>171</v>
       </c>
       <c r="G64" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="H64" t="s">
+        <v>300</v>
       </c>
       <c r="I64">
         <v>7.5</v>
       </c>
       <c r="J64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K64">
         <v>2022</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>201800171</v>
+        <v>201800022</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -5112,127 +5465,154 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="B65">
-        <v>201800025</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
+        <v>201300007</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F65" t="s">
         <v>171</v>
       </c>
       <c r="G65" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I65">
         <v>7.5</v>
       </c>
       <c r="J65" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K65">
         <v>2022</v>
       </c>
-      <c r="L65">
-        <v>3</v>
-      </c>
-      <c r="N65" t="s">
-        <v>282</v>
-      </c>
-      <c r="P65">
-        <v>201800022</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
+      <c r="L65" t="s">
+        <v>154</v>
+      </c>
+      <c r="M65" t="s">
+        <v>205</v>
+      </c>
+      <c r="P65" t="s">
+        <v>303</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
-      <c r="U65">
-        <v>1</v>
-      </c>
-      <c r="AR65">
-        <v>1</v>
-      </c>
-      <c r="AU65">
-        <v>1</v>
-      </c>
-      <c r="BE65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AE65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AS65">
+        <v>1</v>
+      </c>
+      <c r="AW65">
+        <v>1</v>
+      </c>
+      <c r="AY65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B66">
-        <v>201800024</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
+        <v>202100060</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
         <v>171</v>
       </c>
       <c r="G66" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H66" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I66">
         <v>7.5</v>
       </c>
       <c r="J66" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K66">
         <v>2022</v>
       </c>
-      <c r="L66">
-        <v>3</v>
-      </c>
-      <c r="P66">
-        <v>201800022</v>
-      </c>
-      <c r="Q66">
-        <v>1</v>
+      <c r="L66" t="s">
+        <v>187</v>
+      </c>
+      <c r="M66" t="s">
+        <v>205</v>
+      </c>
+      <c r="P66" t="s">
+        <v>307</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
-      <c r="U66">
-        <v>1</v>
-      </c>
-      <c r="AR66">
-        <v>1</v>
-      </c>
-      <c r="AU66">
-        <v>1</v>
-      </c>
-      <c r="BE66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AW66">
+        <v>1</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>1</v>
+      </c>
+      <c r="BF66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="B67">
-        <v>201300007</v>
+        <v>201300004</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
@@ -5244,16 +5624,16 @@
         <v>171</v>
       </c>
       <c r="G67" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H67" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I67">
         <v>7.5</v>
       </c>
       <c r="J67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K67">
         <v>2022</v>
@@ -5262,13 +5642,13 @@
         <v>154</v>
       </c>
       <c r="M67" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="N67" t="s">
+        <v>108</v>
       </c>
       <c r="P67" t="s">
-        <v>306</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="AE67">
         <v>1</v>
@@ -5276,15 +5656,15 @@
       <c r="AK67">
         <v>1</v>
       </c>
-      <c r="AL67">
-        <v>1</v>
-      </c>
-      <c r="AN67">
-        <v>1</v>
-      </c>
       <c r="AO67">
         <v>1</v>
       </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AS67">
+        <v>1</v>
+      </c>
       <c r="AW67">
         <v>1</v>
       </c>
@@ -5292,8 +5672,1254 @@
         <v>1</v>
       </c>
     </row>
+    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68">
+        <v>200300176</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" t="s">
+        <v>313</v>
+      </c>
+      <c r="I68">
+        <v>7.5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>256</v>
+      </c>
+      <c r="K68">
+        <v>2022</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1</v>
+      </c>
+      <c r="BE68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>315</v>
+      </c>
+      <c r="B69">
+        <v>202000003</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" t="s">
+        <v>316</v>
+      </c>
+      <c r="H69" t="s">
+        <v>317</v>
+      </c>
+      <c r="I69">
+        <v>2.5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>256</v>
+      </c>
+      <c r="K69">
+        <v>2022</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
+        <v>318</v>
+      </c>
+      <c r="P69" t="s">
+        <v>171</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1</v>
+      </c>
+      <c r="BE69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70">
+        <v>201000129</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" t="s">
+        <v>320</v>
+      </c>
+      <c r="I70">
+        <v>7.5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>256</v>
+      </c>
+      <c r="K70">
+        <v>2022</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>321</v>
+      </c>
+      <c r="O70" t="s">
+        <v>323</v>
+      </c>
+      <c r="P70" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>1</v>
+      </c>
+      <c r="BE70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71">
+        <v>201700012</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>171</v>
+      </c>
+      <c r="G71" t="s">
+        <v>179</v>
+      </c>
+      <c r="H71" t="s">
+        <v>324</v>
+      </c>
+      <c r="I71">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>256</v>
+      </c>
+      <c r="K71">
+        <v>2022</v>
+      </c>
+      <c r="L71" t="s">
+        <v>154</v>
+      </c>
+      <c r="P71" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+      <c r="AV71">
+        <v>1</v>
+      </c>
+      <c r="AW71">
+        <v>1</v>
+      </c>
+      <c r="AY71">
+        <v>1</v>
+      </c>
+      <c r="BE71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72">
+        <v>201300052</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>171</v>
+      </c>
+      <c r="G72" t="s">
+        <v>327</v>
+      </c>
+      <c r="H72" t="s">
+        <v>327</v>
+      </c>
+      <c r="I72">
+        <v>7.5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>256</v>
+      </c>
+      <c r="K72">
+        <v>2022</v>
+      </c>
+      <c r="L72" t="s">
+        <v>154</v>
+      </c>
+      <c r="N72" t="s">
+        <v>328</v>
+      </c>
+      <c r="P72" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AW72">
+        <v>1</v>
+      </c>
+      <c r="AY72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>329</v>
+      </c>
+      <c r="B73">
+        <v>202000005</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" t="s">
+        <v>171</v>
+      </c>
+      <c r="G73" t="s">
+        <v>330</v>
+      </c>
+      <c r="H73" t="s">
+        <v>331</v>
+      </c>
+      <c r="I73">
+        <v>7.5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>256</v>
+      </c>
+      <c r="K73">
+        <v>2022</v>
+      </c>
+      <c r="L73" t="s">
+        <v>332</v>
+      </c>
+      <c r="M73" t="s">
+        <v>333</v>
+      </c>
+      <c r="P73" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>1</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AY73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>334</v>
+      </c>
+      <c r="B74">
+        <v>202100002</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74" t="s">
+        <v>335</v>
+      </c>
+      <c r="H74" t="s">
+        <v>336</v>
+      </c>
+      <c r="I74">
+        <v>3.75</v>
+      </c>
+      <c r="J74" t="s">
+        <v>256</v>
+      </c>
+      <c r="K74">
+        <v>2022</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="P74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75">
+        <v>202000083</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>171</v>
+      </c>
+      <c r="G75" t="s">
+        <v>337</v>
+      </c>
+      <c r="H75" t="s">
+        <v>337</v>
+      </c>
+      <c r="I75">
+        <v>7.5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>256</v>
+      </c>
+      <c r="K75">
+        <v>2022</v>
+      </c>
+      <c r="L75" t="s">
+        <v>154</v>
+      </c>
+      <c r="M75" t="s">
+        <v>188</v>
+      </c>
+      <c r="P75" t="s">
+        <v>171</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76">
+        <v>200300004</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" t="s">
+        <v>171</v>
+      </c>
+      <c r="G76" t="s">
+        <v>340</v>
+      </c>
+      <c r="H76" t="s">
+        <v>341</v>
+      </c>
+      <c r="I76">
+        <v>7.5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>256</v>
+      </c>
+      <c r="K76">
+        <v>2022</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>270</v>
+      </c>
+      <c r="P76" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AY76">
+        <v>1</v>
+      </c>
+      <c r="AZ76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77">
+        <v>201900014</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" t="s">
+        <v>344</v>
+      </c>
+      <c r="I77">
+        <v>7.5</v>
+      </c>
+      <c r="J77" t="s">
+        <v>256</v>
+      </c>
+      <c r="K77">
+        <v>2022</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>345</v>
+      </c>
+      <c r="P77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>346</v>
+      </c>
+      <c r="B78">
+        <v>201300008</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s">
+        <v>171</v>
+      </c>
+      <c r="G78" t="s">
+        <v>347</v>
+      </c>
+      <c r="H78" t="s">
+        <v>347</v>
+      </c>
+      <c r="I78">
+        <v>7.5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>256</v>
+      </c>
+      <c r="K78">
+        <v>2022</v>
+      </c>
+      <c r="L78" t="s">
+        <v>154</v>
+      </c>
+      <c r="M78" t="s">
+        <v>205</v>
+      </c>
+      <c r="P78" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79">
+        <v>202200015</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
+        <v>171</v>
+      </c>
+      <c r="G79" t="s">
+        <v>348</v>
+      </c>
+      <c r="H79" t="s">
+        <v>348</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79" t="s">
+        <v>256</v>
+      </c>
+      <c r="K79">
+        <v>2022</v>
+      </c>
+      <c r="L79" t="s">
+        <v>187</v>
+      </c>
+      <c r="P79" t="s">
+        <v>171</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>349</v>
+      </c>
+      <c r="B80">
+        <v>201000091</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" t="s">
+        <v>171</v>
+      </c>
+      <c r="G80" t="s">
+        <v>350</v>
+      </c>
+      <c r="H80" t="s">
+        <v>350</v>
+      </c>
+      <c r="I80">
+        <v>7.5</v>
+      </c>
+      <c r="J80" t="s">
+        <v>256</v>
+      </c>
+      <c r="K80">
+        <v>2022</v>
+      </c>
+      <c r="L80" t="s">
+        <v>187</v>
+      </c>
+      <c r="M80" t="s">
+        <v>188</v>
+      </c>
+      <c r="P80" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>352</v>
+      </c>
+      <c r="B81">
+        <v>200800164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" t="s">
+        <v>353</v>
+      </c>
+      <c r="H81" t="s">
+        <v>354</v>
+      </c>
+      <c r="I81">
+        <v>7.5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>256</v>
+      </c>
+      <c r="K81">
+        <v>2022</v>
+      </c>
+      <c r="L81" t="s">
+        <v>154</v>
+      </c>
+      <c r="M81" t="s">
+        <v>355</v>
+      </c>
+      <c r="P81" t="s">
+        <v>171</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
+        <v>1</v>
+      </c>
+      <c r="BE81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>356</v>
+      </c>
+      <c r="B82">
+        <v>200800167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>171</v>
+      </c>
+      <c r="G82" t="s">
+        <v>357</v>
+      </c>
+      <c r="I82">
+        <v>7.5</v>
+      </c>
+      <c r="J82" t="s">
+        <v>256</v>
+      </c>
+      <c r="K82">
+        <v>2022</v>
+      </c>
+      <c r="L82" t="s">
+        <v>187</v>
+      </c>
+      <c r="M82" t="s">
+        <v>355</v>
+      </c>
+      <c r="P82" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>1</v>
+      </c>
+      <c r="AY82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>358</v>
+      </c>
+      <c r="B83">
+        <v>200600024</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
+        <v>171</v>
+      </c>
+      <c r="G83" t="s">
+        <v>359</v>
+      </c>
+      <c r="H83" t="s">
+        <v>287</v>
+      </c>
+      <c r="I83">
+        <v>7.5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>256</v>
+      </c>
+      <c r="K83">
+        <v>2022</v>
+      </c>
+      <c r="L83" t="s">
+        <v>154</v>
+      </c>
+      <c r="M83" t="s">
+        <v>273</v>
+      </c>
+      <c r="P83" t="s">
+        <v>171</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>360</v>
+      </c>
+      <c r="B84">
+        <v>200600028</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" t="s">
+        <v>361</v>
+      </c>
+      <c r="H84" t="s">
+        <v>362</v>
+      </c>
+      <c r="I84">
+        <v>7.5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>256</v>
+      </c>
+      <c r="K84">
+        <v>2022</v>
+      </c>
+      <c r="L84" t="s">
+        <v>187</v>
+      </c>
+      <c r="M84" t="s">
+        <v>273</v>
+      </c>
+      <c r="P84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>363</v>
+      </c>
+      <c r="B85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" t="s">
+        <v>266</v>
+      </c>
+      <c r="H85" t="s">
+        <v>364</v>
+      </c>
+      <c r="I85">
+        <v>7.5</v>
+      </c>
+      <c r="J85" t="s">
+        <v>256</v>
+      </c>
+      <c r="K85">
+        <v>2022</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>365</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>1</v>
+      </c>
+      <c r="AY85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>367</v>
+      </c>
+      <c r="B86">
+        <v>201600008</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" t="s">
+        <v>368</v>
+      </c>
+      <c r="H86" t="s">
+        <v>369</v>
+      </c>
+      <c r="I86">
+        <v>7.5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>256</v>
+      </c>
+      <c r="K86">
+        <v>2022</v>
+      </c>
+      <c r="L86" t="s">
+        <v>187</v>
+      </c>
+      <c r="M86" t="s">
+        <v>205</v>
+      </c>
+      <c r="P86" t="s">
+        <v>171</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AQ86">
+        <v>1</v>
+      </c>
+      <c r="AR86">
+        <v>1</v>
+      </c>
+      <c r="AY86">
+        <v>1</v>
+      </c>
+      <c r="BE86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>370</v>
+      </c>
+      <c r="B87">
+        <v>202100010</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" t="s">
+        <v>171</v>
+      </c>
+      <c r="G87" t="s">
+        <v>244</v>
+      </c>
+      <c r="I87">
+        <v>7.5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>256</v>
+      </c>
+      <c r="K87">
+        <v>2022</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87" t="s">
+        <v>333</v>
+      </c>
+      <c r="N87" t="s">
+        <v>333</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AC87">
+        <v>1</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1</v>
+      </c>
+      <c r="AY87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88">
+        <v>202100050</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
+        <v>171</v>
+      </c>
+      <c r="G88" t="s">
+        <v>167</v>
+      </c>
+      <c r="H88" t="s">
+        <v>372</v>
+      </c>
+      <c r="I88">
+        <v>7.5</v>
+      </c>
+      <c r="J88" t="s">
+        <v>256</v>
+      </c>
+      <c r="K88">
+        <v>2022</v>
+      </c>
+      <c r="L88" t="s">
+        <v>187</v>
+      </c>
+      <c r="M88" t="s">
+        <v>205</v>
+      </c>
+      <c r="P88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1</v>
+      </c>
+      <c r="AW88">
+        <v>1</v>
+      </c>
+      <c r="AY88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>374</v>
+      </c>
+      <c r="B89">
+        <v>201800051</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>84</v>
+      </c>
+      <c r="F89" t="s">
+        <v>171</v>
+      </c>
+      <c r="G89" t="s">
+        <v>294</v>
+      </c>
+      <c r="H89" t="s">
+        <v>294</v>
+      </c>
+      <c r="I89">
+        <v>7.5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>256</v>
+      </c>
+      <c r="K89">
+        <v>2022</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>171</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>1</v>
+      </c>
+      <c r="AW89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>375</v>
+      </c>
+      <c r="B90">
+        <v>201100055</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s">
+        <v>171</v>
+      </c>
+      <c r="G90" t="s">
+        <v>376</v>
+      </c>
+      <c r="H90" t="s">
+        <v>377</v>
+      </c>
+      <c r="I90">
+        <v>7.5</v>
+      </c>
+      <c r="J90" t="s">
+        <v>256</v>
+      </c>
+      <c r="K90">
+        <v>2022</v>
+      </c>
+      <c r="L90" t="s">
+        <v>154</v>
+      </c>
+      <c r="M90" t="s">
+        <v>273</v>
+      </c>
+      <c r="P90" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AZ67" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}"/>
+  <autoFilter ref="A1:AZ65" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/DS courses list.xlsx
+++ b/Data/DS courses list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ola\OneDrive - Universiteit Utrecht\Documents\GitHub\UU-DS-courses\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B44D78-0113-4DDD-BFA0-4834B15931F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68FD8C4-8295-4595-9F72-34BE2B57BAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1526A550-0408-4384-9B3B-2B5C51FB6CCB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BH$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BH$138</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="540">
   <si>
     <t>Course Name</t>
   </si>
@@ -823,9 +823,6 @@
     <t>MSc. H.J. Leplaa</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>not Academische lerarenopleiding primair onderwijs, not Cultural Anthropology and Development Sociology, not Educational Sciences, not Interdisciplinary Social Sciences, not Pedagogical Sciences, not Psychology, not Sociology</t>
   </si>
   <si>
@@ -1184,12 +1181,6 @@
   </si>
   <si>
     <t>Introduction to research methods and statistics (PW &amp; OWW)</t>
-  </si>
-  <si>
-    <t>Measurement and modelling with social data</t>
-  </si>
-  <si>
-    <t>dr. N.K. Schuurman</t>
   </si>
   <si>
     <t>Methods and Statistics 2: Structural equation modelling and multilevel analysis</t>
@@ -1642,10 +1633,6 @@
   </si>
   <si>
     <t>dr. K. Lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-Herbert Hoijtink and Rebecca Kuiper</t>
   </si>
   <si>
     <t>S003</t>
@@ -1727,6 +1714,15 @@
       </rPr>
       <t>R.K. Stellato</t>
     </r>
+  </si>
+  <si>
+    <t>prof.. Dr. H. Hoijtink, dr. R. Kuiper</t>
+  </si>
+  <si>
+    <t>prof.. Dr. H. Hoijtink</t>
+  </si>
+  <si>
+    <t>Post-academic</t>
   </si>
 </sst>
 </file>
@@ -2122,11 +2118,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501E35CE-ACC9-4FC1-9D06-B7BA9C0949C0}">
-  <dimension ref="A1:BI139"/>
+  <dimension ref="A1:BI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2198,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2240,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q1" t="s">
         <v>33</v>
@@ -2249,13 +2246,13 @@
         <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T1" t="s">
         <v>60</v>
       </c>
       <c r="U1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V1" t="s">
         <v>84</v>
@@ -2312,10 +2309,10 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AP1" t="s">
         <v>46</v>
@@ -2339,7 +2336,7 @@
         <v>162</v>
       </c>
       <c r="AW1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AX1" t="s">
         <v>156</v>
@@ -2357,25 +2354,25 @@
         <v>244</v>
       </c>
       <c r="BC1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BD1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BE1" t="s">
         <v>279</v>
       </c>
-      <c r="BE1" t="s">
-        <v>280</v>
-      </c>
       <c r="BF1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="BG1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="BH1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BI1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.3">
@@ -2507,7 +2504,7 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
@@ -3341,7 +3338,7 @@
         <v>114</v>
       </c>
       <c r="P19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -3706,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="BI26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.3">
@@ -3951,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="BI30" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.3">
@@ -4016,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="BI31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.3">
@@ -4356,7 +4353,7 @@
         <v>199</v>
       </c>
       <c r="B39" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C39">
         <v>202100022</v>
@@ -4371,13 +4368,16 @@
         <v>165</v>
       </c>
       <c r="G39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I39">
         <v>7.5</v>
+      </c>
+      <c r="J39">
+        <v>2021</v>
       </c>
       <c r="K39">
         <v>2022</v>
@@ -4386,10 +4386,10 @@
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P39" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>211</v>
       </c>
       <c r="B42" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C42" t="s">
         <v>207</v>
@@ -4601,7 +4601,7 @@
         <v>210</v>
       </c>
       <c r="B43" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C43" t="s">
         <v>212</v>
@@ -4645,7 +4645,7 @@
         <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C44" t="s">
         <v>218</v>
@@ -4689,7 +4689,7 @@
         <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C45" t="s">
         <v>220</v>
@@ -4754,7 +4754,7 @@
         <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C46" t="s">
         <v>223</v>
@@ -4822,7 +4822,7 @@
         <v>228</v>
       </c>
       <c r="B47" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C47" t="s">
         <v>227</v>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="BI47" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.3">
@@ -4884,7 +4884,7 @@
         <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C48" t="s">
         <v>233</v>
@@ -5062,8 +5062,8 @@
       <c r="I52">
         <v>7.5</v>
       </c>
-      <c r="J52" t="s">
-        <v>249</v>
+      <c r="J52">
+        <v>2019</v>
       </c>
       <c r="K52">
         <v>2022</v>
@@ -5075,7 +5075,7 @@
         <v>164</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -5092,7 +5092,7 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C53">
         <v>202200104</v>
@@ -5107,16 +5107,13 @@
         <v>165</v>
       </c>
       <c r="G53" t="s">
+        <v>252</v>
+      </c>
+      <c r="H53" t="s">
         <v>253</v>
       </c>
-      <c r="H53" t="s">
-        <v>254</v>
-      </c>
       <c r="I53">
         <v>7.5</v>
-      </c>
-      <c r="J53" t="s">
-        <v>249</v>
       </c>
       <c r="K53">
         <v>2022</v>
@@ -5125,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -5137,12 +5134,12 @@
         <v>1</v>
       </c>
       <c r="BI53" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C54">
         <v>201800032</v>
@@ -5157,16 +5154,16 @@
         <v>165</v>
       </c>
       <c r="G54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I54">
         <v>5</v>
       </c>
-      <c r="J54" t="s">
-        <v>249</v>
+      <c r="J54">
+        <v>2018</v>
       </c>
       <c r="K54">
         <v>2022</v>
@@ -5183,7 +5180,7 @@
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C55">
         <v>200300009</v>
@@ -5198,25 +5195,25 @@
         <v>165</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H55" t="s">
+        <v>259</v>
+      </c>
+      <c r="I55">
+        <v>7.5</v>
+      </c>
+      <c r="J55">
+        <v>2017</v>
+      </c>
+      <c r="K55">
+        <v>2022</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
         <v>260</v>
-      </c>
-      <c r="I55">
-        <v>7.5</v>
-      </c>
-      <c r="J55" t="s">
-        <v>249</v>
-      </c>
-      <c r="K55">
-        <v>2022</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="N55" t="s">
-        <v>261</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -5230,7 +5227,7 @@
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C56">
         <v>200600027</v>
@@ -5245,16 +5242,16 @@
         <v>165</v>
       </c>
       <c r="G56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I56">
         <v>7.5</v>
       </c>
-      <c r="J56" t="s">
-        <v>249</v>
+      <c r="J56">
+        <v>2019</v>
       </c>
       <c r="K56">
         <v>2022</v>
@@ -5263,7 +5260,7 @@
         <v>181</v>
       </c>
       <c r="M56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P56" t="s">
         <v>165</v>
@@ -5292,7 +5289,7 @@
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57">
         <v>201900054</v>
@@ -5307,16 +5304,16 @@
         <v>165</v>
       </c>
       <c r="G57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I57">
         <v>7.5</v>
       </c>
-      <c r="J57" t="s">
-        <v>249</v>
+      <c r="J57">
+        <v>2020</v>
       </c>
       <c r="K57">
         <v>2022</v>
@@ -5325,10 +5322,10 @@
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -5342,7 +5339,7 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C58">
         <v>201900398</v>
@@ -5357,13 +5354,13 @@
         <v>165</v>
       </c>
       <c r="G58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I58">
         <v>7.5</v>
       </c>
-      <c r="J58" t="s">
-        <v>249</v>
+      <c r="J58">
+        <v>2019</v>
       </c>
       <c r="K58">
         <v>2022</v>
@@ -5372,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="P58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -5386,7 +5383,7 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C59">
         <v>200600023</v>
@@ -5401,16 +5398,16 @@
         <v>165</v>
       </c>
       <c r="G59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I59">
         <v>7.5</v>
       </c>
-      <c r="J59" t="s">
-        <v>249</v>
+      <c r="J59">
+        <v>2019</v>
       </c>
       <c r="K59">
         <v>2022</v>
@@ -5419,7 +5416,7 @@
         <v>148</v>
       </c>
       <c r="M59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P59" t="s">
         <v>165</v>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C60">
         <v>201800055</v>
@@ -5457,16 +5454,16 @@
         <v>165</v>
       </c>
       <c r="G60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I60">
         <v>7.5</v>
       </c>
-      <c r="J60" t="s">
-        <v>249</v>
+      <c r="J60">
+        <v>2018</v>
       </c>
       <c r="K60">
         <v>2022</v>
@@ -5496,12 +5493,12 @@
         <v>1</v>
       </c>
       <c r="BI60" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C61">
         <v>201800028</v>
@@ -5516,16 +5513,16 @@
         <v>165</v>
       </c>
       <c r="G61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I61">
         <v>7.5</v>
       </c>
-      <c r="J61" t="s">
-        <v>249</v>
+      <c r="J61">
+        <v>2018</v>
       </c>
       <c r="K61">
         <v>2022</v>
@@ -5534,15 +5531,15 @@
         <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BI61" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C62">
         <v>201800173</v>
@@ -5557,13 +5554,13 @@
         <v>165</v>
       </c>
       <c r="G62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I62">
         <v>7.5</v>
       </c>
-      <c r="J62" t="s">
-        <v>249</v>
+      <c r="J62">
+        <v>2018</v>
       </c>
       <c r="K62">
         <v>2022</v>
@@ -5590,12 +5587,12 @@
         <v>1</v>
       </c>
       <c r="BI62" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C63">
         <v>201800025</v>
@@ -5610,16 +5607,16 @@
         <v>165</v>
       </c>
       <c r="G63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I63">
         <v>7.5</v>
       </c>
-      <c r="J63" t="s">
-        <v>249</v>
+      <c r="J63">
+        <v>2020</v>
       </c>
       <c r="K63">
         <v>2022</v>
@@ -5628,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P63">
         <v>201800022</v>
@@ -5652,12 +5649,12 @@
         <v>1</v>
       </c>
       <c r="BI63" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C64">
         <v>201800024</v>
@@ -5672,16 +5669,16 @@
         <v>165</v>
       </c>
       <c r="G64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I64">
         <v>7.5</v>
       </c>
-      <c r="J64" t="s">
-        <v>249</v>
+      <c r="J64">
+        <v>2018</v>
       </c>
       <c r="K64">
         <v>2022</v>
@@ -5711,12 +5708,12 @@
         <v>1</v>
       </c>
       <c r="BI64" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C65">
         <v>201300007</v>
@@ -5731,16 +5728,16 @@
         <v>165</v>
       </c>
       <c r="G65" t="s">
+        <v>291</v>
+      </c>
+      <c r="H65" t="s">
         <v>292</v>
       </c>
-      <c r="H65" t="s">
-        <v>293</v>
-      </c>
       <c r="I65">
         <v>7.5</v>
       </c>
-      <c r="J65" t="s">
-        <v>249</v>
+      <c r="J65">
+        <v>2015</v>
       </c>
       <c r="K65">
         <v>2022</v>
@@ -5752,7 +5749,7 @@
         <v>198</v>
       </c>
       <c r="P65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -5784,7 +5781,7 @@
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C66">
         <v>202100060</v>
@@ -5799,16 +5796,16 @@
         <v>165</v>
       </c>
       <c r="G66" t="s">
+        <v>295</v>
+      </c>
+      <c r="H66" t="s">
         <v>296</v>
       </c>
-      <c r="H66" t="s">
-        <v>297</v>
-      </c>
       <c r="I66">
         <v>7.5</v>
       </c>
-      <c r="J66" t="s">
-        <v>249</v>
+      <c r="J66">
+        <v>2021</v>
       </c>
       <c r="K66">
         <v>2022</v>
@@ -5820,7 +5817,7 @@
         <v>198</v>
       </c>
       <c r="P66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -5858,7 +5855,7 @@
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C67">
         <v>201300004</v>
@@ -5873,16 +5870,16 @@
         <v>165</v>
       </c>
       <c r="G67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I67">
         <v>7.5</v>
       </c>
-      <c r="J67" t="s">
-        <v>249</v>
+      <c r="J67">
+        <v>2015</v>
       </c>
       <c r="K67">
         <v>2022</v>
@@ -5923,7 +5920,7 @@
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C68">
         <v>200300176</v>
@@ -5938,13 +5935,13 @@
         <v>165</v>
       </c>
       <c r="G68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I68">
         <v>7.5</v>
       </c>
-      <c r="J68" t="s">
-        <v>249</v>
+      <c r="J68">
+        <v>2017</v>
       </c>
       <c r="K68">
         <v>2022</v>
@@ -5953,7 +5950,7 @@
         <v>4</v>
       </c>
       <c r="P68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U68">
         <v>1</v>
@@ -5967,7 +5964,7 @@
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C69">
         <v>202000003</v>
@@ -5982,16 +5979,16 @@
         <v>165</v>
       </c>
       <c r="G69" t="s">
+        <v>306</v>
+      </c>
+      <c r="H69" t="s">
         <v>307</v>
-      </c>
-      <c r="H69" t="s">
-        <v>308</v>
       </c>
       <c r="I69">
         <v>2.5</v>
       </c>
-      <c r="J69" t="s">
-        <v>249</v>
+      <c r="J69">
+        <v>2020</v>
       </c>
       <c r="K69">
         <v>2022</v>
@@ -6000,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P69" t="s">
         <v>165</v>
@@ -6017,7 +6014,7 @@
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C70">
         <v>201000129</v>
@@ -6032,13 +6029,13 @@
         <v>165</v>
       </c>
       <c r="G70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I70">
         <v>7.5</v>
       </c>
-      <c r="J70" t="s">
-        <v>249</v>
+      <c r="J70">
+        <v>2015</v>
       </c>
       <c r="K70">
         <v>2022</v>
@@ -6047,14 +6044,14 @@
         <v>4</v>
       </c>
       <c r="N70" t="s">
+        <v>311</v>
+      </c>
+      <c r="O70" t="s">
+        <v>313</v>
+      </c>
+      <c r="P70" t="s">
         <v>312</v>
       </c>
-      <c r="O70" t="s">
-        <v>314</v>
-      </c>
-      <c r="P70" t="s">
-        <v>313</v>
-      </c>
       <c r="Q70">
         <v>1</v>
       </c>
@@ -6071,12 +6068,12 @@
         <v>1</v>
       </c>
       <c r="BI70" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C71">
         <v>201700012</v>
@@ -6094,13 +6091,13 @@
         <v>173</v>
       </c>
       <c r="H71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I71">
         <v>15</v>
       </c>
-      <c r="J71" t="s">
-        <v>249</v>
+      <c r="J71">
+        <v>2017</v>
       </c>
       <c r="K71">
         <v>2022</v>
@@ -6162,7 +6159,7 @@
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C72">
         <v>201300052</v>
@@ -6177,16 +6174,16 @@
         <v>165</v>
       </c>
       <c r="G72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I72">
         <v>7.5</v>
       </c>
-      <c r="J72" t="s">
-        <v>249</v>
+      <c r="J72">
+        <v>2015</v>
       </c>
       <c r="K72">
         <v>2022</v>
@@ -6195,7 +6192,7 @@
         <v>148</v>
       </c>
       <c r="N72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P72" t="s">
         <v>165</v>
@@ -6227,7 +6224,7 @@
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C73">
         <v>202000005</v>
@@ -6242,28 +6239,28 @@
         <v>165</v>
       </c>
       <c r="G73" t="s">
+        <v>320</v>
+      </c>
+      <c r="H73" t="s">
         <v>321</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73">
+        <v>7.5</v>
+      </c>
+      <c r="J73">
+        <v>2020</v>
+      </c>
+      <c r="K73">
+        <v>2022</v>
+      </c>
+      <c r="L73" t="s">
         <v>322</v>
       </c>
-      <c r="I73">
-        <v>7.5</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="M73" t="s">
+        <v>323</v>
+      </c>
+      <c r="P73" t="s">
         <v>249</v>
-      </c>
-      <c r="K73">
-        <v>2022</v>
-      </c>
-      <c r="L73" t="s">
-        <v>323</v>
-      </c>
-      <c r="M73" t="s">
-        <v>324</v>
-      </c>
-      <c r="P73" t="s">
-        <v>250</v>
       </c>
       <c r="AA73">
         <v>1</v>
@@ -6289,7 +6286,10 @@
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="B74" t="s">
+        <v>437</v>
       </c>
       <c r="C74">
         <v>202100002</v>
@@ -6304,16 +6304,16 @@
         <v>165</v>
       </c>
       <c r="G74" t="s">
+        <v>325</v>
+      </c>
+      <c r="H74" t="s">
         <v>326</v>
-      </c>
-      <c r="H74" t="s">
-        <v>327</v>
       </c>
       <c r="I74">
         <v>3.75</v>
       </c>
-      <c r="J74" t="s">
-        <v>249</v>
+      <c r="J74">
+        <v>2021</v>
       </c>
       <c r="K74">
         <v>2022</v>
@@ -6325,12 +6325,12 @@
         <v>165</v>
       </c>
       <c r="BI74" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C75">
         <v>202000083</v>
@@ -6345,16 +6345,16 @@
         <v>165</v>
       </c>
       <c r="G75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I75">
         <v>7.5</v>
       </c>
-      <c r="J75" t="s">
-        <v>249</v>
+      <c r="J75">
+        <v>2020</v>
       </c>
       <c r="K75">
         <v>2022</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C76">
         <v>200300004</v>
@@ -6395,16 +6395,16 @@
         <v>165</v>
       </c>
       <c r="G76" t="s">
+        <v>330</v>
+      </c>
+      <c r="H76" t="s">
         <v>331</v>
       </c>
-      <c r="H76" t="s">
-        <v>332</v>
-      </c>
       <c r="I76">
         <v>7.5</v>
       </c>
-      <c r="J76" t="s">
-        <v>249</v>
+      <c r="J76">
+        <v>2020</v>
       </c>
       <c r="K76">
         <v>2022</v>
@@ -6413,10 +6413,10 @@
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C77">
         <v>201900014</v>
@@ -6454,22 +6454,22 @@
         <v>165</v>
       </c>
       <c r="G77" t="s">
+        <v>334</v>
+      </c>
+      <c r="I77">
+        <v>7.5</v>
+      </c>
+      <c r="J77">
+        <v>2019</v>
+      </c>
+      <c r="K77">
+        <v>2022</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
         <v>335</v>
-      </c>
-      <c r="I77">
-        <v>7.5</v>
-      </c>
-      <c r="J77" t="s">
-        <v>249</v>
-      </c>
-      <c r="K77">
-        <v>2022</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="N77" t="s">
-        <v>336</v>
       </c>
       <c r="P77" t="s">
         <v>165</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C78">
         <v>201300008</v>
@@ -6504,16 +6504,16 @@
         <v>165</v>
       </c>
       <c r="G78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I78">
         <v>7.5</v>
       </c>
-      <c r="J78" t="s">
-        <v>249</v>
+      <c r="J78">
+        <v>2015</v>
       </c>
       <c r="K78">
         <v>2022</v>
@@ -6548,17 +6548,14 @@
         <v>165</v>
       </c>
       <c r="G79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
-      <c r="J79" t="s">
-        <v>249</v>
-      </c>
       <c r="K79">
         <v>2022</v>
       </c>
@@ -6574,7 +6571,7 @@
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C80">
         <v>201000091</v>
@@ -6589,16 +6586,16 @@
         <v>165</v>
       </c>
       <c r="G80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I80">
         <v>7.5</v>
       </c>
-      <c r="J80" t="s">
-        <v>249</v>
+      <c r="J80">
+        <v>2018</v>
       </c>
       <c r="K80">
         <v>2022</v>
@@ -6610,15 +6607,15 @@
         <v>182</v>
       </c>
       <c r="P80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BI80" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C81">
         <v>200800164</v>
@@ -6633,16 +6630,16 @@
         <v>165</v>
       </c>
       <c r="G81" t="s">
+        <v>343</v>
+      </c>
+      <c r="H81" t="s">
         <v>344</v>
       </c>
-      <c r="H81" t="s">
-        <v>345</v>
-      </c>
       <c r="I81">
         <v>7.5</v>
       </c>
-      <c r="J81" t="s">
-        <v>249</v>
+      <c r="J81">
+        <v>2015</v>
       </c>
       <c r="K81">
         <v>2022</v>
@@ -6651,7 +6648,7 @@
         <v>148</v>
       </c>
       <c r="M81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P81" t="s">
         <v>165</v>
@@ -6669,12 +6666,12 @@
         <v>1</v>
       </c>
       <c r="BI81" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C82">
         <v>200800167</v>
@@ -6689,13 +6686,13 @@
         <v>165</v>
       </c>
       <c r="G82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I82">
         <v>7.5</v>
       </c>
-      <c r="J82" t="s">
-        <v>249</v>
+      <c r="J82">
+        <v>2015</v>
       </c>
       <c r="K82">
         <v>2022</v>
@@ -6704,7 +6701,7 @@
         <v>181</v>
       </c>
       <c r="M82" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P82" t="s">
         <v>165</v>
@@ -6727,7 +6724,7 @@
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C83">
         <v>200600024</v>
@@ -6742,16 +6739,16 @@
         <v>165</v>
       </c>
       <c r="G83" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H83" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I83">
         <v>7.5</v>
       </c>
-      <c r="J83" t="s">
-        <v>249</v>
+      <c r="J83">
+        <v>2015</v>
       </c>
       <c r="K83">
         <v>2022</v>
@@ -6760,7 +6757,7 @@
         <v>148</v>
       </c>
       <c r="M83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P83" t="s">
         <v>165</v>
@@ -6780,7 +6777,7 @@
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C84">
         <v>200600028</v>
@@ -6795,16 +6792,16 @@
         <v>165</v>
       </c>
       <c r="G84" t="s">
+        <v>351</v>
+      </c>
+      <c r="H84" t="s">
         <v>352</v>
       </c>
-      <c r="H84" t="s">
-        <v>353</v>
-      </c>
       <c r="I84">
         <v>7.5</v>
       </c>
-      <c r="J84" t="s">
-        <v>249</v>
+      <c r="J84">
+        <v>2015</v>
       </c>
       <c r="K84">
         <v>2022</v>
@@ -6813,7 +6810,7 @@
         <v>181</v>
       </c>
       <c r="M84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P84" t="s">
         <v>165</v>
@@ -6821,7 +6818,7 @@
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C85">
         <v>201600017</v>
@@ -6836,10 +6833,10 @@
         <v>165</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I85">
         <v>7.5</v>
@@ -6854,10 +6851,10 @@
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P85" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -6881,12 +6878,12 @@
         <v>1</v>
       </c>
       <c r="BI85" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C86">
         <v>201600008</v>
@@ -6901,16 +6898,16 @@
         <v>165</v>
       </c>
       <c r="G86" t="s">
+        <v>357</v>
+      </c>
+      <c r="H86" t="s">
         <v>358</v>
       </c>
-      <c r="H86" t="s">
-        <v>359</v>
-      </c>
       <c r="I86">
         <v>7.5</v>
       </c>
-      <c r="J86" t="s">
-        <v>249</v>
+      <c r="J86">
+        <v>2016</v>
       </c>
       <c r="K86">
         <v>2022</v>
@@ -6963,7 +6960,7 @@
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C87">
         <v>202100010</v>
@@ -6983,8 +6980,8 @@
       <c r="I87">
         <v>7.5</v>
       </c>
-      <c r="J87" t="s">
-        <v>249</v>
+      <c r="J87">
+        <v>2021</v>
       </c>
       <c r="K87">
         <v>2022</v>
@@ -6993,10 +6990,10 @@
         <v>2</v>
       </c>
       <c r="M87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -7028,7 +7025,7 @@
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C88">
         <v>202100050</v>
@@ -7046,13 +7043,13 @@
         <v>161</v>
       </c>
       <c r="H88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I88">
         <v>7.5</v>
       </c>
-      <c r="J88" t="s">
-        <v>249</v>
+      <c r="J88">
+        <v>2021</v>
       </c>
       <c r="K88">
         <v>2022</v>
@@ -7064,7 +7061,7 @@
         <v>198</v>
       </c>
       <c r="P88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -7096,7 +7093,7 @@
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C89">
         <v>201800051</v>
@@ -7111,16 +7108,16 @@
         <v>165</v>
       </c>
       <c r="G89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I89">
         <v>7.5</v>
       </c>
-      <c r="J89" t="s">
-        <v>249</v>
+      <c r="J89">
+        <v>2018</v>
       </c>
       <c r="K89">
         <v>2022</v>
@@ -7143,7 +7140,7 @@
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C90">
         <v>201100055</v>
@@ -7158,16 +7155,16 @@
         <v>165</v>
       </c>
       <c r="G90" t="s">
+        <v>365</v>
+      </c>
+      <c r="H90" t="s">
         <v>366</v>
       </c>
-      <c r="H90" t="s">
-        <v>367</v>
-      </c>
       <c r="I90">
         <v>7.5</v>
       </c>
-      <c r="J90" t="s">
-        <v>249</v>
+      <c r="J90">
+        <v>2017</v>
       </c>
       <c r="K90">
         <v>2022</v>
@@ -7176,18 +7173,18 @@
         <v>148</v>
       </c>
       <c r="M90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P90" t="s">
         <v>165</v>
       </c>
       <c r="BI90" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C91">
         <v>201800022</v>
@@ -7202,16 +7199,16 @@
         <v>165</v>
       </c>
       <c r="G91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I91">
         <v>7.5</v>
       </c>
-      <c r="J91" t="s">
-        <v>249</v>
+      <c r="J91">
+        <v>2020</v>
       </c>
       <c r="K91">
         <v>2022</v>
@@ -7220,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P91" t="s">
         <v>165</v>
@@ -7240,7 +7237,7 @@
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92">
         <v>201800171</v>
@@ -7255,16 +7252,16 @@
         <v>165</v>
       </c>
       <c r="G92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I92">
         <v>7.5</v>
       </c>
-      <c r="J92" t="s">
-        <v>249</v>
+      <c r="J92">
+        <v>2018</v>
       </c>
       <c r="K92">
         <v>2022</v>
@@ -7287,10 +7284,10 @@
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C93">
-        <v>201800138</v>
+        <v>201100060</v>
       </c>
       <c r="D93" t="s">
         <v>22</v>
@@ -7302,45 +7299,57 @@
         <v>165</v>
       </c>
       <c r="G93" t="s">
+        <v>370</v>
+      </c>
+      <c r="H93" t="s">
         <v>371</v>
       </c>
       <c r="I93">
-        <v>5</v>
-      </c>
-      <c r="J93" t="s">
-        <v>249</v>
+        <v>7.5</v>
+      </c>
+      <c r="J93">
+        <v>2015</v>
       </c>
       <c r="K93">
         <v>2022</v>
       </c>
-      <c r="L93">
-        <v>2</v>
+      <c r="L93" t="s">
+        <v>181</v>
+      </c>
+      <c r="M93" t="s">
+        <v>372</v>
       </c>
       <c r="P93" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="S93">
         <v>1</v>
       </c>
-      <c r="T93">
+      <c r="AA93">
         <v>1</v>
       </c>
       <c r="AO93">
         <v>1</v>
       </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1</v>
+      </c>
       <c r="AY93">
         <v>1</v>
       </c>
-      <c r="AZ93">
-        <v>1</v>
+      <c r="BI93" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C94">
-        <v>201100060</v>
+        <v>200800163</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -7352,57 +7361,54 @@
         <v>165</v>
       </c>
       <c r="G94" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H94" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I94">
         <v>7.5</v>
       </c>
-      <c r="J94" t="s">
-        <v>249</v>
+      <c r="J94">
+        <v>2015</v>
       </c>
       <c r="K94">
         <v>2022</v>
       </c>
       <c r="L94" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="M94" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="P94" t="s">
-        <v>376</v>
+        <v>165</v>
       </c>
       <c r="S94">
         <v>1</v>
       </c>
-      <c r="AA94">
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="AN94">
         <v>1</v>
       </c>
       <c r="AO94">
         <v>1</v>
       </c>
-      <c r="AQ94">
-        <v>1</v>
-      </c>
-      <c r="AR94">
-        <v>1</v>
-      </c>
       <c r="AY94">
         <v>1</v>
       </c>
-      <c r="BI94" t="s">
-        <v>384</v>
+      <c r="AZ94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C95">
-        <v>200800163</v>
+        <v>201300002</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -7414,16 +7420,16 @@
         <v>165</v>
       </c>
       <c r="G95" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="H95" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="I95">
         <v>7.5</v>
       </c>
-      <c r="J95" t="s">
-        <v>249</v>
+      <c r="J95">
+        <v>2017</v>
       </c>
       <c r="K95">
         <v>2022</v>
@@ -7432,15 +7438,9 @@
         <v>148</v>
       </c>
       <c r="M95" t="s">
-        <v>346</v>
-      </c>
-      <c r="P95" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="S95">
-        <v>1</v>
-      </c>
-      <c r="Y95">
         <v>1</v>
       </c>
       <c r="AN95">
@@ -7458,10 +7458,10 @@
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C96">
-        <v>201300002</v>
+        <v>200500314</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -7473,16 +7473,13 @@
         <v>165</v>
       </c>
       <c r="G96" t="s">
-        <v>253</v>
-      </c>
-      <c r="H96" t="s">
-        <v>253</v>
+        <v>397</v>
       </c>
       <c r="I96">
         <v>7.5</v>
       </c>
-      <c r="J96" t="s">
-        <v>249</v>
+      <c r="J96">
+        <v>2017</v>
       </c>
       <c r="K96">
         <v>2022</v>
@@ -7491,9 +7488,15 @@
         <v>148</v>
       </c>
       <c r="M96" t="s">
-        <v>198</v>
+        <v>398</v>
+      </c>
+      <c r="P96" t="s">
+        <v>165</v>
       </c>
       <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="Y96">
         <v>1</v>
       </c>
       <c r="AN96">
@@ -7514,7 +7517,7 @@
         <v>399</v>
       </c>
       <c r="C97">
-        <v>200500314</v>
+        <v>202000013</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -7531,17 +7534,14 @@
       <c r="I97">
         <v>7.5</v>
       </c>
-      <c r="J97" t="s">
-        <v>249</v>
+      <c r="J97">
+        <v>2020</v>
       </c>
       <c r="K97">
         <v>2022</v>
       </c>
       <c r="L97" t="s">
-        <v>148</v>
-      </c>
-      <c r="M97" t="s">
-        <v>401</v>
+        <v>181</v>
       </c>
       <c r="P97" t="s">
         <v>165</v>
@@ -7567,45 +7567,45 @@
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="C98">
-        <v>202000013</v>
-      </c>
-      <c r="D98" t="s">
-        <v>22</v>
+        <v>200300022</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F98" t="s">
         <v>165</v>
       </c>
       <c r="G98" t="s">
-        <v>403</v>
+        <v>195</v>
+      </c>
+      <c r="H98" t="s">
+        <v>401</v>
       </c>
       <c r="I98">
         <v>7.5</v>
       </c>
-      <c r="J98" t="s">
-        <v>249</v>
+      <c r="J98">
+        <v>2015</v>
       </c>
       <c r="K98">
         <v>2022</v>
       </c>
-      <c r="L98" t="s">
-        <v>181</v>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>193</v>
       </c>
       <c r="P98" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="S98">
-        <v>1</v>
-      </c>
-      <c r="Y98">
-        <v>1</v>
-      </c>
-      <c r="AN98">
         <v>1</v>
       </c>
       <c r="AO98">
@@ -7620,13 +7620,13 @@
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>402</v>
       </c>
       <c r="C99">
-        <v>200300022</v>
+        <v>201000042</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" t="s">
         <v>80</v>
@@ -7635,7 +7635,7 @@
         <v>165</v>
       </c>
       <c r="G99" t="s">
-        <v>195</v>
+        <v>403</v>
       </c>
       <c r="H99" t="s">
         <v>404</v>
@@ -7643,25 +7643,25 @@
       <c r="I99">
         <v>7.5</v>
       </c>
-      <c r="J99" t="s">
-        <v>249</v>
+      <c r="J99">
+        <v>2020</v>
       </c>
       <c r="K99">
         <v>2022</v>
       </c>
       <c r="L99">
-        <v>2</v>
-      </c>
-      <c r="N99" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="P99" t="s">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="S99">
         <v>1</v>
       </c>
-      <c r="AO99">
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AQ99">
         <v>1</v>
       </c>
       <c r="AY99">
@@ -7669,14 +7669,20 @@
       </c>
       <c r="AZ99">
         <v>1</v>
+      </c>
+      <c r="BI99" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="B100" t="s">
+        <v>437</v>
       </c>
       <c r="C100">
-        <v>201000042</v>
+        <v>202100004</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -7688,54 +7694,51 @@
         <v>165</v>
       </c>
       <c r="G100" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="H100" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="I100">
-        <v>7.5</v>
-      </c>
-      <c r="J100" t="s">
-        <v>249</v>
+        <v>3.75</v>
+      </c>
+      <c r="J100">
+        <v>2021</v>
       </c>
       <c r="K100">
         <v>2022</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P100" t="s">
         <v>165</v>
       </c>
-      <c r="S100">
-        <v>1</v>
-      </c>
-      <c r="AN100">
+      <c r="AA100">
+        <v>1</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
+      </c>
+      <c r="AG100">
         <v>1</v>
       </c>
       <c r="AQ100">
         <v>1</v>
       </c>
+      <c r="AW100">
+        <v>1</v>
+      </c>
       <c r="AY100">
         <v>1</v>
-      </c>
-      <c r="AZ100">
-        <v>1</v>
-      </c>
-      <c r="BI100" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>409</v>
-      </c>
-      <c r="B101" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="C101">
-        <v>202100004</v>
+        <v>202000053</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -7747,78 +7750,78 @@
         <v>165</v>
       </c>
       <c r="G101" t="s">
-        <v>326</v>
+        <v>408</v>
       </c>
       <c r="H101" t="s">
-        <v>327</v>
+        <v>409</v>
       </c>
       <c r="I101">
-        <v>3.75</v>
-      </c>
-      <c r="J101" t="s">
-        <v>249</v>
+        <v>7.5</v>
+      </c>
+      <c r="J101">
+        <v>2015</v>
       </c>
       <c r="K101">
         <v>2022</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P101" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA101">
-        <v>1</v>
-      </c>
-      <c r="AE101">
-        <v>1</v>
-      </c>
-      <c r="AG101">
+        <v>410</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>1</v>
       </c>
       <c r="AQ101">
         <v>1</v>
       </c>
-      <c r="AW101">
-        <v>1</v>
-      </c>
       <c r="AY101">
+        <v>1</v>
+      </c>
+      <c r="AZ101">
+        <v>1</v>
+      </c>
+      <c r="BE101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C102">
-        <v>202000053</v>
-      </c>
-      <c r="D102">
+        <v>201700162</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
+        <v>165</v>
+      </c>
+      <c r="G102" t="s">
+        <v>412</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102">
+        <v>2018</v>
+      </c>
+      <c r="K102">
+        <v>2022</v>
+      </c>
+      <c r="L102">
         <v>2</v>
-      </c>
-      <c r="E102" t="s">
-        <v>80</v>
-      </c>
-      <c r="F102" t="s">
-        <v>165</v>
-      </c>
-      <c r="G102" t="s">
-        <v>411</v>
-      </c>
-      <c r="H102" t="s">
-        <v>412</v>
-      </c>
-      <c r="I102">
-        <v>7.5</v>
-      </c>
-      <c r="J102" t="s">
-        <v>249</v>
-      </c>
-      <c r="K102">
-        <v>2022</v>
-      </c>
-      <c r="L102">
-        <v>4</v>
       </c>
       <c r="P102" t="s">
         <v>413</v>
@@ -7829,28 +7832,22 @@
       <c r="U102">
         <v>1</v>
       </c>
-      <c r="AO102">
-        <v>1</v>
-      </c>
-      <c r="AQ102">
-        <v>1</v>
-      </c>
-      <c r="AY102">
-        <v>1</v>
-      </c>
-      <c r="AZ102">
+      <c r="AR102">
         <v>1</v>
       </c>
       <c r="BE102">
         <v>1</v>
+      </c>
+      <c r="BI102" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C103">
-        <v>201700162</v>
+        <v>200500313</v>
       </c>
       <c r="D103" t="s">
         <v>22</v>
@@ -7862,48 +7859,51 @@
         <v>165</v>
       </c>
       <c r="G103" t="s">
+        <v>416</v>
+      </c>
+      <c r="I103">
+        <v>7.5</v>
+      </c>
+      <c r="J103">
+        <v>2017</v>
+      </c>
+      <c r="K103">
+        <v>2022</v>
+      </c>
+      <c r="L103" t="s">
+        <v>181</v>
+      </c>
+      <c r="M103" t="s">
+        <v>398</v>
+      </c>
+      <c r="P103" t="s">
+        <v>417</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AR103">
+        <v>1</v>
+      </c>
+      <c r="BE103">
+        <v>1</v>
+      </c>
+      <c r="BI103" t="s">
         <v>415</v>
-      </c>
-      <c r="I103">
-        <v>5</v>
-      </c>
-      <c r="J103" t="s">
-        <v>249</v>
-      </c>
-      <c r="K103">
-        <v>2022</v>
-      </c>
-      <c r="L103">
-        <v>2</v>
-      </c>
-      <c r="P103" t="s">
-        <v>416</v>
-      </c>
-      <c r="S103">
-        <v>1</v>
-      </c>
-      <c r="U103">
-        <v>1</v>
-      </c>
-      <c r="AR103">
-        <v>1</v>
-      </c>
-      <c r="BE103">
-        <v>1</v>
-      </c>
-      <c r="BI103" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="104" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C104">
-        <v>200500313</v>
-      </c>
-      <c r="D104" t="s">
-        <v>22</v>
+        <v>201500044</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -7912,25 +7912,31 @@
         <v>165</v>
       </c>
       <c r="G104" t="s">
-        <v>419</v>
+        <v>420</v>
+      </c>
+      <c r="H104" t="s">
+        <v>421</v>
       </c>
       <c r="I104">
         <v>7.5</v>
       </c>
-      <c r="J104" t="s">
-        <v>249</v>
+      <c r="J104">
+        <v>2015</v>
       </c>
       <c r="K104">
         <v>2022</v>
       </c>
-      <c r="L104" t="s">
-        <v>181</v>
+      <c r="L104">
+        <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>401</v>
+        <v>422</v>
+      </c>
+      <c r="N104" t="s">
+        <v>423</v>
       </c>
       <c r="P104" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -7945,18 +7951,18 @@
         <v>1</v>
       </c>
       <c r="BI104" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C105">
-        <v>201500044</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
+        <v>202000004</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
       </c>
       <c r="E105" t="s">
         <v>16</v>
@@ -7965,57 +7971,48 @@
         <v>165</v>
       </c>
       <c r="G105" t="s">
-        <v>423</v>
+        <v>306</v>
       </c>
       <c r="H105" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="I105">
-        <v>7.5</v>
-      </c>
-      <c r="J105" t="s">
-        <v>249</v>
+        <v>2.5</v>
+      </c>
+      <c r="J105">
+        <v>2020</v>
       </c>
       <c r="K105">
         <v>2022</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M105" t="s">
-        <v>425</v>
-      </c>
-      <c r="N105" t="s">
-        <v>426</v>
+        <v>308</v>
       </c>
       <c r="P105" t="s">
-        <v>427</v>
-      </c>
-      <c r="S105">
-        <v>1</v>
-      </c>
-      <c r="AO105">
-        <v>1</v>
-      </c>
-      <c r="AR105">
-        <v>1</v>
+        <v>428</v>
       </c>
       <c r="BE105">
         <v>1</v>
       </c>
       <c r="BI105" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>429</v>
+        <v>433</v>
+      </c>
+      <c r="B106" t="s">
+        <v>432</v>
       </c>
       <c r="C106">
-        <v>202000004</v>
-      </c>
-      <c r="D106" t="s">
-        <v>22</v>
+        <v>201800027</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
       </c>
       <c r="E106" t="s">
         <v>16</v>
@@ -8024,34 +8021,43 @@
         <v>165</v>
       </c>
       <c r="G106" t="s">
-        <v>307</v>
-      </c>
-      <c r="H106" t="s">
         <v>430</v>
       </c>
       <c r="I106">
-        <v>2.5</v>
-      </c>
-      <c r="J106" t="s">
-        <v>249</v>
+        <v>7.5</v>
+      </c>
+      <c r="J106">
+        <v>2017</v>
       </c>
       <c r="K106">
         <v>2022</v>
       </c>
       <c r="L106">
-        <v>2</v>
-      </c>
-      <c r="M106" t="s">
-        <v>309</v>
+        <v>4</v>
       </c>
       <c r="P106" t="s">
-        <v>431</v>
+        <v>434</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>1</v>
       </c>
       <c r="BE106">
         <v>1</v>
       </c>
       <c r="BI106" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.3">
@@ -8059,119 +8065,125 @@
         <v>436</v>
       </c>
       <c r="B107" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C107">
-        <v>201800027</v>
+        <v>200500985</v>
       </c>
       <c r="D107">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F107" t="s">
         <v>165</v>
       </c>
       <c r="G107" t="s">
-        <v>433</v>
+        <v>438</v>
+      </c>
+      <c r="H107" t="s">
+        <v>439</v>
       </c>
       <c r="I107">
-        <v>7.5</v>
-      </c>
-      <c r="J107" t="s">
-        <v>249</v>
+        <v>3.75</v>
+      </c>
+      <c r="J107">
+        <v>2015</v>
       </c>
       <c r="K107">
         <v>2022</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>437</v>
-      </c>
-      <c r="S107">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="U107">
         <v>1</v>
       </c>
-      <c r="AO107">
-        <v>1</v>
-      </c>
-      <c r="AQ107">
-        <v>1</v>
-      </c>
       <c r="AR107">
         <v>1</v>
       </c>
       <c r="BE107">
         <v>1</v>
-      </c>
-      <c r="BI107" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B108" t="s">
+        <v>442</v>
+      </c>
+      <c r="C108">
+        <v>200400022</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>165</v>
+      </c>
+      <c r="G108" t="s">
+        <v>444</v>
+      </c>
+      <c r="I108">
+        <v>7.5</v>
+      </c>
+      <c r="J108">
+        <v>2017</v>
+      </c>
+      <c r="K108">
+        <v>2022</v>
+      </c>
+      <c r="L108" t="s">
+        <v>148</v>
+      </c>
+      <c r="M108" t="s">
+        <v>443</v>
+      </c>
+      <c r="P108" t="s">
         <v>440</v>
       </c>
-      <c r="C108">
-        <v>200500985</v>
-      </c>
-      <c r="D108">
-        <v>3</v>
-      </c>
-      <c r="E108" t="s">
-        <v>80</v>
-      </c>
-      <c r="F108" t="s">
-        <v>165</v>
-      </c>
-      <c r="G108" t="s">
-        <v>441</v>
-      </c>
-      <c r="H108" t="s">
-        <v>442</v>
-      </c>
-      <c r="I108">
-        <v>3.75</v>
-      </c>
-      <c r="J108" t="s">
-        <v>249</v>
-      </c>
-      <c r="K108">
-        <v>2022</v>
-      </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-      <c r="P108" t="s">
-        <v>165</v>
-      </c>
-      <c r="U108">
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="AA108">
+        <v>1</v>
+      </c>
+      <c r="AH108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AQ108">
         <v>1</v>
       </c>
       <c r="AR108">
         <v>1</v>
       </c>
-      <c r="BE108">
+      <c r="AY108">
+        <v>1</v>
+      </c>
+      <c r="AZ108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B109" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C109">
-        <v>200400022</v>
+        <v>200400023</v>
       </c>
       <c r="D109" t="s">
         <v>22</v>
@@ -8183,26 +8195,26 @@
         <v>165</v>
       </c>
       <c r="G109" t="s">
+        <v>445</v>
+      </c>
+      <c r="I109">
+        <v>7.5</v>
+      </c>
+      <c r="J109">
+        <v>2017</v>
+      </c>
+      <c r="K109">
+        <v>2022</v>
+      </c>
+      <c r="L109" t="s">
+        <v>181</v>
+      </c>
+      <c r="M109" t="s">
+        <v>443</v>
+      </c>
+      <c r="P109" t="s">
         <v>447</v>
       </c>
-      <c r="I109">
-        <v>7.5</v>
-      </c>
-      <c r="J109" t="s">
-        <v>249</v>
-      </c>
-      <c r="K109">
-        <v>2022</v>
-      </c>
-      <c r="L109" t="s">
-        <v>148</v>
-      </c>
-      <c r="M109" t="s">
-        <v>446</v>
-      </c>
-      <c r="P109" t="s">
-        <v>443</v>
-      </c>
       <c r="S109">
         <v>1</v>
       </c>
@@ -8224,19 +8236,19 @@
       <c r="AY109">
         <v>1</v>
       </c>
-      <c r="AZ109">
+      <c r="BH109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B110" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C110">
-        <v>200400023</v>
+        <v>200400024</v>
       </c>
       <c r="D110" t="s">
         <v>22</v>
@@ -8248,29 +8260,35 @@
         <v>165</v>
       </c>
       <c r="G110" t="s">
+        <v>449</v>
+      </c>
+      <c r="H110" t="s">
+        <v>450</v>
+      </c>
+      <c r="I110">
+        <v>7.5</v>
+      </c>
+      <c r="J110">
+        <v>2017</v>
+      </c>
+      <c r="K110">
+        <v>2022</v>
+      </c>
+      <c r="L110" t="s">
+        <v>148</v>
+      </c>
+      <c r="M110" t="s">
+        <v>443</v>
+      </c>
+      <c r="P110" t="s">
         <v>448</v>
       </c>
-      <c r="I110">
-        <v>7.5</v>
-      </c>
-      <c r="J110" t="s">
-        <v>249</v>
-      </c>
-      <c r="K110">
-        <v>2022</v>
-      </c>
-      <c r="L110" t="s">
-        <v>181</v>
-      </c>
-      <c r="M110" t="s">
-        <v>446</v>
-      </c>
-      <c r="P110" t="s">
-        <v>450</v>
-      </c>
       <c r="S110">
         <v>1</v>
       </c>
+      <c r="U110">
+        <v>1</v>
+      </c>
       <c r="AA110">
         <v>1</v>
       </c>
@@ -8287,21 +8305,18 @@
         <v>1</v>
       </c>
       <c r="AY110">
-        <v>1</v>
-      </c>
-      <c r="BH110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B111" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C111">
-        <v>200400024</v>
+        <v>200400067</v>
       </c>
       <c r="D111" t="s">
         <v>22</v>
@@ -8313,16 +8328,16 @@
         <v>165</v>
       </c>
       <c r="G111" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H111" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I111">
         <v>7.5</v>
       </c>
-      <c r="J111" t="s">
-        <v>249</v>
+      <c r="J111">
+        <v>2017</v>
       </c>
       <c r="K111">
         <v>2022</v>
@@ -8331,17 +8346,14 @@
         <v>148</v>
       </c>
       <c r="M111" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="P111" t="s">
-        <v>451</v>
+        <v>165</v>
       </c>
       <c r="S111">
         <v>1</v>
       </c>
-      <c r="U111">
-        <v>1</v>
-      </c>
       <c r="AA111">
         <v>1</v>
       </c>
@@ -8357,19 +8369,25 @@
       <c r="AR111">
         <v>1</v>
       </c>
+      <c r="AV111">
+        <v>1</v>
+      </c>
       <c r="AY111">
         <v>1</v>
+      </c>
+      <c r="BI111" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B112" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C112">
-        <v>200400067</v>
+        <v>200400071</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
@@ -8381,7 +8399,7 @@
         <v>165</v>
       </c>
       <c r="G112" t="s">
-        <v>457</v>
+        <v>256</v>
       </c>
       <c r="H112" t="s">
         <v>458</v>
@@ -8389,47 +8407,35 @@
       <c r="I112">
         <v>7.5</v>
       </c>
-      <c r="J112" t="s">
-        <v>249</v>
+      <c r="J112">
+        <v>2017</v>
       </c>
       <c r="K112">
         <v>2022</v>
       </c>
       <c r="L112" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M112" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P112" t="s">
-        <v>165</v>
+        <v>459</v>
       </c>
       <c r="S112">
         <v>1</v>
       </c>
-      <c r="AA112">
-        <v>1</v>
-      </c>
-      <c r="AH112">
+      <c r="T112">
+        <v>1</v>
+      </c>
+      <c r="AC112">
         <v>1</v>
       </c>
       <c r="AO112">
         <v>1</v>
       </c>
-      <c r="AQ112">
-        <v>1</v>
-      </c>
       <c r="AR112">
         <v>1</v>
-      </c>
-      <c r="AV112">
-        <v>1</v>
-      </c>
-      <c r="AY112">
-        <v>1</v>
-      </c>
-      <c r="BI112" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.3">
@@ -8437,10 +8443,10 @@
         <v>460</v>
       </c>
       <c r="B113" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C113">
-        <v>200400071</v>
+        <v>200401007</v>
       </c>
       <c r="D113" t="s">
         <v>22</v>
@@ -8452,54 +8458,54 @@
         <v>165</v>
       </c>
       <c r="G113" t="s">
-        <v>257</v>
+        <v>461</v>
       </c>
       <c r="H113" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I113">
         <v>7.5</v>
       </c>
-      <c r="J113" t="s">
-        <v>249</v>
+      <c r="J113">
+        <v>2017</v>
       </c>
       <c r="K113">
         <v>2022</v>
       </c>
       <c r="L113" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="M113" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="P113" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S113">
         <v>1</v>
       </c>
-      <c r="T113">
-        <v>1</v>
-      </c>
-      <c r="AC113">
-        <v>1</v>
-      </c>
       <c r="AO113">
         <v>1</v>
       </c>
       <c r="AR113">
         <v>1</v>
+      </c>
+      <c r="BE113">
+        <v>1</v>
+      </c>
+      <c r="BI113" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B114" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C114">
-        <v>200401007</v>
+        <v>200401006</v>
       </c>
       <c r="D114" t="s">
         <v>22</v>
@@ -8511,30 +8517,30 @@
         <v>165</v>
       </c>
       <c r="G114" t="s">
-        <v>464</v>
-      </c>
-      <c r="H114" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I114">
         <v>7.5</v>
       </c>
-      <c r="J114" t="s">
-        <v>249</v>
+      <c r="J114">
+        <v>2017</v>
       </c>
       <c r="K114">
         <v>2022</v>
       </c>
       <c r="L114" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M114" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P114" t="s">
-        <v>466</v>
-      </c>
-      <c r="S114">
+        <v>467</v>
+      </c>
+      <c r="AA114">
+        <v>1</v>
+      </c>
+      <c r="AK114">
         <v>1</v>
       </c>
       <c r="AO114">
@@ -8543,11 +8549,17 @@
       <c r="AR114">
         <v>1</v>
       </c>
-      <c r="BE114">
-        <v>1</v>
-      </c>
-      <c r="BI114" t="s">
-        <v>467</v>
+      <c r="AY114">
+        <v>1</v>
+      </c>
+      <c r="AZ114">
+        <v>1</v>
+      </c>
+      <c r="BB114">
+        <v>1</v>
+      </c>
+      <c r="BC114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:61" x14ac:dyDescent="0.3">
@@ -8555,10 +8567,10 @@
         <v>468</v>
       </c>
       <c r="B115" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C115">
-        <v>200401006</v>
+        <v>201200058</v>
       </c>
       <c r="D115" t="s">
         <v>22</v>
@@ -8570,63 +8582,60 @@
         <v>165</v>
       </c>
       <c r="G115" t="s">
+        <v>458</v>
+      </c>
+      <c r="H115" t="s">
         <v>469</v>
       </c>
       <c r="I115">
         <v>7.5</v>
       </c>
-      <c r="J115" t="s">
-        <v>249</v>
+      <c r="J115">
+        <v>2020</v>
       </c>
       <c r="K115">
         <v>2022</v>
       </c>
       <c r="L115" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="M115" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="P115" t="s">
-        <v>470</v>
+        <v>165</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>1</v>
       </c>
-      <c r="AK115">
-        <v>1</v>
-      </c>
       <c r="AO115">
         <v>1</v>
       </c>
       <c r="AR115">
         <v>1</v>
       </c>
-      <c r="AY115">
-        <v>1</v>
-      </c>
       <c r="AZ115">
         <v>1</v>
       </c>
-      <c r="BB115">
-        <v>1</v>
-      </c>
-      <c r="BC115">
+      <c r="BF115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B116" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C116">
-        <v>201200058</v>
-      </c>
-      <c r="D116" t="s">
-        <v>22</v>
+        <v>200300014</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
       </c>
       <c r="E116" t="s">
         <v>16</v>
@@ -8635,116 +8644,110 @@
         <v>165</v>
       </c>
       <c r="G116" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="H116" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I116">
         <v>7.5</v>
       </c>
-      <c r="J116" t="s">
-        <v>249</v>
+      <c r="J116">
+        <v>2016</v>
       </c>
       <c r="K116">
         <v>2022</v>
       </c>
-      <c r="L116" t="s">
-        <v>148</v>
+      <c r="L116">
+        <v>3</v>
       </c>
       <c r="M116" t="s">
-        <v>473</v>
+        <v>475</v>
+      </c>
+      <c r="N116" t="s">
+        <v>260</v>
       </c>
       <c r="P116" t="s">
         <v>165</v>
       </c>
-      <c r="S116">
-        <v>1</v>
-      </c>
-      <c r="AA116">
+      <c r="AC116">
         <v>1</v>
       </c>
       <c r="AO116">
         <v>1</v>
       </c>
       <c r="AR116">
-        <v>1</v>
-      </c>
-      <c r="AZ116">
-        <v>1</v>
-      </c>
-      <c r="BF116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B117" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C117">
-        <v>200300014</v>
+        <v>200300157</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F117" t="s">
         <v>165</v>
       </c>
       <c r="G117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H117" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I117">
         <v>7.5</v>
       </c>
-      <c r="J117" t="s">
-        <v>249</v>
+      <c r="J117">
+        <v>2015</v>
       </c>
       <c r="K117">
         <v>2022</v>
       </c>
       <c r="L117">
-        <v>3</v>
-      </c>
-      <c r="M117" t="s">
-        <v>478</v>
-      </c>
-      <c r="N117" t="s">
-        <v>261</v>
+        <v>2</v>
       </c>
       <c r="P117" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC117">
+        <v>172</v>
+      </c>
+      <c r="S117">
         <v>1</v>
       </c>
       <c r="AO117">
         <v>1</v>
       </c>
+      <c r="AQ117">
+        <v>1</v>
+      </c>
       <c r="AR117">
+        <v>1</v>
+      </c>
+      <c r="BG117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B118" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C118">
-        <v>200300157</v>
+        <v>202000838</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
         <v>80</v>
@@ -8753,57 +8756,51 @@
         <v>165</v>
       </c>
       <c r="G118" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H118" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I118">
         <v>7.5</v>
       </c>
-      <c r="J118" t="s">
-        <v>249</v>
+      <c r="J118">
+        <v>2015</v>
       </c>
       <c r="K118">
         <v>2022</v>
       </c>
       <c r="L118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P118" t="s">
-        <v>172</v>
+        <v>483</v>
       </c>
       <c r="S118">
         <v>1</v>
       </c>
-      <c r="AO118">
-        <v>1</v>
-      </c>
-      <c r="AQ118">
+      <c r="U118">
         <v>1</v>
       </c>
       <c r="AR118">
-        <v>1</v>
-      </c>
-      <c r="BG118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B119" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C119">
-        <v>202000838</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
+        <v>201400025</v>
+      </c>
+      <c r="D119" t="s">
+        <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
         <v>165</v>
@@ -8817,37 +8814,37 @@
       <c r="I119">
         <v>7.5</v>
       </c>
-      <c r="J119" t="s">
-        <v>249</v>
+      <c r="J119">
+        <v>2015</v>
       </c>
       <c r="K119">
         <v>2022</v>
       </c>
-      <c r="L119">
-        <v>3</v>
+      <c r="L119" t="s">
+        <v>181</v>
       </c>
       <c r="P119" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="S119">
         <v>1</v>
       </c>
-      <c r="U119">
-        <v>1</v>
-      </c>
-      <c r="AR119">
-        <v>1</v>
+      <c r="AC119">
+        <v>1</v>
+      </c>
+      <c r="BI119" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B120" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C120">
-        <v>201400025</v>
+        <v>200400064</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -8859,48 +8856,60 @@
         <v>165</v>
       </c>
       <c r="G120" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H120" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I120">
         <v>7.5</v>
       </c>
-      <c r="J120" t="s">
-        <v>249</v>
+      <c r="J120">
+        <v>2015</v>
       </c>
       <c r="K120">
         <v>2022</v>
       </c>
       <c r="L120" t="s">
-        <v>181</v>
+        <v>148</v>
+      </c>
+      <c r="M120" t="s">
+        <v>453</v>
+      </c>
+      <c r="N120" t="s">
+        <v>491</v>
       </c>
       <c r="P120" t="s">
-        <v>462</v>
+        <v>172</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
       </c>
       <c r="S120">
         <v>1</v>
       </c>
-      <c r="AC120">
+      <c r="AR120">
+        <v>1</v>
+      </c>
+      <c r="BE120">
         <v>1</v>
       </c>
       <c r="BI120" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="121" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B121" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C121">
-        <v>200400064</v>
-      </c>
-      <c r="D121" t="s">
-        <v>22</v>
+        <v>200300125</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
       </c>
       <c r="E121" t="s">
         <v>16</v>
@@ -8909,60 +8918,78 @@
         <v>165</v>
       </c>
       <c r="G121" t="s">
-        <v>492</v>
+        <v>191</v>
       </c>
       <c r="H121" t="s">
-        <v>493</v>
+        <v>191</v>
       </c>
       <c r="I121">
         <v>7.5</v>
       </c>
-      <c r="J121" t="s">
-        <v>249</v>
+      <c r="J121">
+        <v>2015</v>
       </c>
       <c r="K121">
         <v>2022</v>
       </c>
-      <c r="L121" t="s">
-        <v>148</v>
-      </c>
-      <c r="M121" t="s">
-        <v>456</v>
+      <c r="L121">
+        <v>1</v>
       </c>
       <c r="N121" t="s">
-        <v>494</v>
+        <v>496</v>
+      </c>
+      <c r="O121" t="s">
+        <v>313</v>
       </c>
       <c r="P121" t="s">
-        <v>172</v>
+        <v>535</v>
       </c>
       <c r="Q121">
         <v>1</v>
       </c>
-      <c r="S121">
+      <c r="T121">
+        <v>1</v>
+      </c>
+      <c r="AA121">
+        <v>1</v>
+      </c>
+      <c r="AE121">
+        <v>1</v>
+      </c>
+      <c r="AH121">
+        <v>1</v>
+      </c>
+      <c r="AK121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AQ121">
         <v>1</v>
       </c>
       <c r="AR121">
         <v>1</v>
       </c>
-      <c r="BE121">
+      <c r="AY121">
         <v>1</v>
       </c>
       <c r="BI121" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="122" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B122" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C122">
-        <v>200300125</v>
+        <v>201800006</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E122" t="s">
         <v>16</v>
@@ -8971,61 +8998,43 @@
         <v>165</v>
       </c>
       <c r="G122" t="s">
-        <v>191</v>
+        <v>498</v>
       </c>
       <c r="H122" t="s">
-        <v>191</v>
+        <v>499</v>
       </c>
       <c r="I122">
         <v>7.5</v>
       </c>
+      <c r="J122">
+        <v>2018</v>
+      </c>
       <c r="K122">
         <v>2022</v>
       </c>
       <c r="L122">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M122" t="s">
+        <v>501</v>
       </c>
       <c r="N122" t="s">
-        <v>499</v>
-      </c>
-      <c r="O122" t="s">
-        <v>314</v>
-      </c>
-      <c r="P122" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="Q122">
         <v>1</v>
       </c>
-      <c r="T122">
-        <v>1</v>
-      </c>
-      <c r="AA122">
-        <v>1</v>
-      </c>
-      <c r="AE122">
-        <v>1</v>
-      </c>
-      <c r="AH122">
-        <v>1</v>
-      </c>
-      <c r="AK122">
+      <c r="S122">
         <v>1</v>
       </c>
       <c r="AO122">
         <v>1</v>
       </c>
-      <c r="AQ122">
-        <v>1</v>
-      </c>
       <c r="AR122">
         <v>1</v>
       </c>
-      <c r="AY122">
-        <v>1</v>
-      </c>
-      <c r="BI122" t="s">
-        <v>500</v>
+      <c r="BE122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:61" x14ac:dyDescent="0.3">
@@ -9033,246 +9042,265 @@
         <v>503</v>
       </c>
       <c r="B123" t="s">
-        <v>445</v>
-      </c>
-      <c r="C123">
-        <v>201800006</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" t="s">
-        <v>165</v>
-      </c>
-      <c r="G123" t="s">
-        <v>501</v>
-      </c>
-      <c r="H123" t="s">
-        <v>502</v>
-      </c>
-      <c r="I123">
-        <v>7.5</v>
-      </c>
-      <c r="J123" t="s">
-        <v>249</v>
+        <v>510</v>
       </c>
       <c r="K123">
         <v>2022</v>
-      </c>
-      <c r="L123">
-        <v>2</v>
-      </c>
-      <c r="M123" t="s">
-        <v>504</v>
-      </c>
-      <c r="N123" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q123">
-        <v>1</v>
-      </c>
-      <c r="S123">
-        <v>1</v>
-      </c>
-      <c r="AO123">
-        <v>1</v>
-      </c>
-      <c r="AR123">
-        <v>1</v>
-      </c>
-      <c r="BE123">
-        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B124" t="s">
-        <v>513</v>
+        <v>510</v>
+      </c>
+      <c r="K124">
+        <v>2022</v>
       </c>
     </row>
     <row r="125" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B125" t="s">
-        <v>513</v>
+        <v>510</v>
+      </c>
+      <c r="K125">
+        <v>2022</v>
       </c>
     </row>
     <row r="126" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B126" t="s">
-        <v>513</v>
+        <v>510</v>
+      </c>
+      <c r="K126">
+        <v>2022</v>
       </c>
     </row>
     <row r="127" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B127" t="s">
-        <v>513</v>
+        <v>510</v>
+      </c>
+      <c r="K127">
+        <v>2022</v>
       </c>
     </row>
     <row r="128" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>508</v>
+      </c>
+      <c r="B128" t="s">
         <v>510</v>
       </c>
-      <c r="B128" t="s">
+      <c r="K128">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="129" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>509</v>
+      </c>
+      <c r="B129" t="s">
+        <v>510</v>
+      </c>
+      <c r="K129">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="130" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>511</v>
+      </c>
+      <c r="B130" t="s">
+        <v>512</v>
+      </c>
+      <c r="C130" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>511</v>
-      </c>
-      <c r="B129" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="G130" t="s">
+        <v>514</v>
+      </c>
+      <c r="K130">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="131" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>515</v>
+      </c>
+      <c r="B131" t="s">
         <v>512</v>
-      </c>
-      <c r="B130" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>514</v>
-      </c>
-      <c r="B131" t="s">
-        <v>515</v>
       </c>
       <c r="C131" t="s">
         <v>516</v>
       </c>
       <c r="G131" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="K131">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="132" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="B132" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C132" t="s">
         <v>519</v>
       </c>
+      <c r="D132" t="s">
+        <v>539</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>165</v>
+      </c>
       <c r="G132" t="s">
+        <v>538</v>
+      </c>
+      <c r="H132" t="s">
+        <v>537</v>
+      </c>
+      <c r="I132">
+        <v>0.5</v>
+      </c>
+      <c r="K132">
+        <v>2022</v>
+      </c>
+      <c r="AK132">
+        <v>1</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
+        <v>1</v>
+      </c>
+      <c r="AS132">
+        <v>1</v>
+      </c>
+      <c r="BG132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>520</v>
+      </c>
+      <c r="B133" t="s">
+        <v>512</v>
+      </c>
+      <c r="C133" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>536</v>
-      </c>
-      <c r="B133" t="s">
-        <v>515</v>
-      </c>
-      <c r="C133" t="s">
-        <v>523</v>
-      </c>
       <c r="G133" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="K133">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="134" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>524</v>
       </c>
       <c r="B134" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C134" t="s">
+        <v>246</v>
+      </c>
+      <c r="G134" t="s">
+        <v>522</v>
+      </c>
+      <c r="K134">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="135" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>525</v>
       </c>
-      <c r="G134" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
+        <v>512</v>
+      </c>
+      <c r="C135" t="s">
         <v>528</v>
       </c>
-      <c r="B135" t="s">
-        <v>515</v>
-      </c>
-      <c r="C135" t="s">
-        <v>246</v>
-      </c>
       <c r="G135" t="s">
+        <v>517</v>
+      </c>
+      <c r="K135">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="136" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
+        <v>512</v>
+      </c>
+      <c r="C136" t="s">
         <v>529</v>
       </c>
-      <c r="B136" t="s">
-        <v>515</v>
-      </c>
-      <c r="C136" t="s">
-        <v>532</v>
-      </c>
       <c r="G136" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="K136">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="137" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>527</v>
+      </c>
+      <c r="B137" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" t="s">
         <v>530</v>
       </c>
-      <c r="B137" t="s">
-        <v>515</v>
-      </c>
-      <c r="C137" t="s">
-        <v>533</v>
-      </c>
       <c r="G137" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="K137">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="138" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>531</v>
       </c>
-      <c r="B138" t="s">
-        <v>152</v>
-      </c>
       <c r="C138" t="s">
+        <v>533</v>
+      </c>
+      <c r="G138" t="s">
         <v>534</v>
       </c>
-      <c r="G138" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>535</v>
-      </c>
-      <c r="C139" t="s">
-        <v>537</v>
-      </c>
-      <c r="G139" t="s">
-        <v>538</v>
-      </c>
-      <c r="H139" t="s">
-        <v>538</v>
+      <c r="H138" t="s">
+        <v>534</v>
+      </c>
+      <c r="K138">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A139" r:id="rId1" display="https://utrechtsummerschool.nl/courses/social-sciences/eye-tracking-research-toolbox" xr:uid="{FF1CEEC9-D904-4027-96EC-26E82893AC11}"/>
+    <hyperlink ref="A138" r:id="rId1" display="https://utrechtsummerschool.nl/courses/social-sciences/eye-tracking-research-toolbox" xr:uid="{FF1CEEC9-D904-4027-96EC-26E82893AC11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9510,18 +9538,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9544,6 +9572,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0F0E3E-AAE2-4269-B402-B7C42270AD4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258C3525-B843-4DF1-AAB7-9A7C9FE670BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9558,12 +9594,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0F0E3E-AAE2-4269-B402-B7C42270AD4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>